--- a/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
@@ -415,25 +415,25 @@
         <v>3.306580552353334</v>
       </c>
       <c r="D2">
-        <v>7.327156663708155</v>
+        <v>7.327156663708273</v>
       </c>
       <c r="E2">
-        <v>10.70327828253595</v>
+        <v>10.70327828253581</v>
       </c>
       <c r="F2">
-        <v>68.70504389335386</v>
+        <v>68.70504389335366</v>
       </c>
       <c r="G2">
-        <v>54.43227121822068</v>
+        <v>54.43227121822056</v>
       </c>
       <c r="H2">
-        <v>50.83353513243046</v>
+        <v>50.83353513243035</v>
       </c>
       <c r="I2">
-        <v>11.41519124348518</v>
+        <v>11.41519124348515</v>
       </c>
       <c r="K2">
-        <v>9.678134770298485</v>
+        <v>9.678134770298383</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.065023404165323</v>
+        <v>3.065023404165358</v>
       </c>
       <c r="D3">
-        <v>6.723781780670393</v>
+        <v>6.72378178067037</v>
       </c>
       <c r="E3">
-        <v>9.911002364024418</v>
+        <v>9.911002364024393</v>
       </c>
       <c r="F3">
-        <v>63.08278686006506</v>
+        <v>63.08278686006484</v>
       </c>
       <c r="G3">
-        <v>49.94141329871348</v>
+        <v>49.94141329871331</v>
       </c>
       <c r="H3">
-        <v>46.63853901651965</v>
+        <v>46.63853901651947</v>
       </c>
       <c r="I3">
-        <v>10.47237967375407</v>
+        <v>10.47237967375409</v>
       </c>
       <c r="K3">
-        <v>8.883089400806874</v>
+        <v>8.88308940080695</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,28 +470,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.916222400111176</v>
+        <v>2.916222400111448</v>
       </c>
       <c r="D4">
-        <v>6.348409192774332</v>
+        <v>6.348409192774275</v>
       </c>
       <c r="E4">
         <v>9.457169555645388</v>
       </c>
       <c r="F4">
-        <v>59.58842892594654</v>
+        <v>59.58842892594642</v>
       </c>
       <c r="G4">
-        <v>47.14721032976982</v>
+        <v>47.14721032976971</v>
       </c>
       <c r="H4">
-        <v>44.02773489061777</v>
+        <v>44.02773489061764</v>
       </c>
       <c r="I4">
-        <v>9.88457782192239</v>
+        <v>9.884577821922329</v>
       </c>
       <c r="K4">
-        <v>8.464632037048727</v>
+        <v>8.464632037048691</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.855219612994918</v>
+        <v>2.85521961299504</v>
       </c>
       <c r="D5">
-        <v>6.193627455855029</v>
+        <v>6.193627455854927</v>
       </c>
       <c r="E5">
-        <v>9.272914782047962</v>
+        <v>9.272914782047927</v>
       </c>
       <c r="F5">
-        <v>58.14927344462556</v>
+        <v>58.14927344462532</v>
       </c>
       <c r="G5">
-        <v>45.99557690006811</v>
+        <v>45.99557690006787</v>
       </c>
       <c r="H5">
-        <v>42.95152472779917</v>
+        <v>42.95152472779893</v>
       </c>
       <c r="I5">
-        <v>9.653130623077143</v>
+        <v>9.653130623077113</v>
       </c>
       <c r="K5">
-        <v>8.314217686366829</v>
+        <v>8.314217686366808</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.845062203496627</v>
+        <v>2.84506220349654</v>
       </c>
       <c r="D6">
         <v>6.167801965928978</v>
       </c>
       <c r="E6">
-        <v>9.242348617397294</v>
+        <v>9.242348617397262</v>
       </c>
       <c r="F6">
-        <v>57.90927633274541</v>
+        <v>57.90927633274527</v>
       </c>
       <c r="G6">
-        <v>45.80347484449929</v>
+        <v>45.80347484449918</v>
       </c>
       <c r="H6">
-        <v>42.7719941165883</v>
+        <v>42.77199411658819</v>
       </c>
       <c r="I6">
-        <v>9.622263312258751</v>
+        <v>9.622263312258742</v>
       </c>
       <c r="K6">
-        <v>8.289312471792691</v>
+        <v>8.289312471792684</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.915401447660412</v>
+        <v>2.915401447660476</v>
       </c>
       <c r="D7">
-        <v>6.346329770361543</v>
+        <v>6.346329770361531</v>
       </c>
       <c r="E7">
-        <v>9.454682432433332</v>
+        <v>9.454682432433309</v>
       </c>
       <c r="F7">
-        <v>59.56908653282652</v>
+        <v>59.56908653282632</v>
       </c>
       <c r="G7">
-        <v>47.13173573952141</v>
+        <v>47.13173573952128</v>
       </c>
       <c r="H7">
-        <v>44.01327442513577</v>
+        <v>44.01327442513566</v>
       </c>
       <c r="I7">
-        <v>9.881319067411857</v>
+        <v>9.881319067411894</v>
       </c>
       <c r="K7">
-        <v>8.462598530025057</v>
+        <v>8.462598530025019</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3.223222214988669</v>
+        <v>3.223222214988591</v>
       </c>
       <c r="D8">
-        <v>7.11973060548585</v>
+        <v>7.119730605486</v>
       </c>
       <c r="E8">
-        <v>10.39911261982539</v>
+        <v>10.39911261982537</v>
       </c>
       <c r="F8">
-        <v>66.77209233621927</v>
+        <v>66.77209233621922</v>
       </c>
       <c r="G8">
-        <v>52.88888120929348</v>
+        <v>52.88888120929347</v>
       </c>
       <c r="H8">
-        <v>49.39197215153413</v>
+        <v>49.39197215153409</v>
       </c>
       <c r="I8">
-        <v>11.0913684750132</v>
+        <v>11.09136847501321</v>
       </c>
       <c r="K8">
-        <v>9.405074529324958</v>
+        <v>9.40507452932493</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -618,22 +618,22 @@
         <v>3.83928332580798</v>
       </c>
       <c r="D9">
-        <v>8.63481349937431</v>
+        <v>8.634813499374214</v>
       </c>
       <c r="E9">
-        <v>12.63720571419456</v>
+        <v>12.63720571419458</v>
       </c>
       <c r="F9">
-        <v>80.86359183716411</v>
+        <v>80.86359183716351</v>
       </c>
       <c r="G9">
-        <v>64.13081746077665</v>
+        <v>64.13081746077619</v>
       </c>
       <c r="H9">
-        <v>59.8888477674784</v>
+        <v>59.88884776747796</v>
       </c>
       <c r="I9">
-        <v>13.44859448807559</v>
+        <v>13.44859448807555</v>
       </c>
       <c r="K9">
         <v>11.39238256211355</v>
@@ -644,25 +644,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.337947497921409</v>
+        <v>4.337947497921365</v>
       </c>
       <c r="D10">
-        <v>9.832435724451821</v>
+        <v>9.83243572445164</v>
       </c>
       <c r="E10">
-        <v>14.39072936337594</v>
+        <v>14.39072936337592</v>
       </c>
       <c r="F10">
-        <v>91.89857695452228</v>
+        <v>91.89857695452194</v>
       </c>
       <c r="G10">
-        <v>72.92575592567763</v>
+        <v>72.92575592567729</v>
       </c>
       <c r="H10">
-        <v>68.09537276437869</v>
+        <v>68.09537276437841</v>
       </c>
       <c r="I10">
-        <v>15.29595795008036</v>
+        <v>15.29595795008028</v>
       </c>
       <c r="K10">
         <v>12.94884409433642</v>
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.593496793769139</v>
+        <v>4.593496793769511</v>
       </c>
       <c r="D11">
-        <v>10.43611721996109</v>
+        <v>10.43611721996124</v>
       </c>
       <c r="E11">
-        <v>15.26614217961343</v>
+        <v>15.26614217961345</v>
       </c>
       <c r="F11">
-        <v>97.40047153870712</v>
+        <v>97.40047153870768</v>
       </c>
       <c r="G11">
-        <v>77.31047048378889</v>
+        <v>77.31047048378939</v>
       </c>
       <c r="H11">
-        <v>72.18470848394277</v>
+        <v>72.1847084839432</v>
       </c>
       <c r="I11">
-        <v>16.22024179890861</v>
+        <v>16.22024179890866</v>
       </c>
       <c r="K11">
-        <v>13.72708166368728</v>
+        <v>13.72708166368736</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.697872985433515</v>
+        <v>4.697872985433524</v>
       </c>
       <c r="D12">
-        <v>10.68062080643635</v>
+        <v>10.68062080643646</v>
       </c>
       <c r="E12">
-        <v>15.6187609876539</v>
+        <v>15.61876098765399</v>
       </c>
       <c r="F12">
-        <v>99.61414161378426</v>
+        <v>99.61414161378471</v>
       </c>
       <c r="G12">
-        <v>79.07484017773351</v>
+        <v>79.0748401777339</v>
       </c>
       <c r="H12">
-        <v>73.82979260653015</v>
+        <v>73.82979260653053</v>
       </c>
       <c r="I12">
-        <v>16.59303722688341</v>
+        <v>16.59303722688354</v>
       </c>
       <c r="K12">
-        <v>14.04085307702551</v>
+        <v>14.04085307702559</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.67496208030033</v>
+        <v>4.674962080300238</v>
       </c>
       <c r="D13">
-        <v>10.62705680424157</v>
+        <v>10.62705680424148</v>
       </c>
       <c r="E13">
-        <v>15.54161477780511</v>
+        <v>15.54161477780512</v>
       </c>
       <c r="F13">
-        <v>99.12997771698828</v>
+        <v>99.12997771698836</v>
       </c>
       <c r="G13">
-        <v>78.68893092466585</v>
+        <v>78.68893092466588</v>
       </c>
       <c r="H13">
-        <v>73.46999606998553</v>
+        <v>73.46999606998558</v>
       </c>
       <c r="I13">
-        <v>16.51145021826578</v>
+        <v>16.51145021826576</v>
       </c>
       <c r="K13">
-        <v>13.97218993471401</v>
+        <v>13.97218993471403</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,25 +760,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4.601899539479487</v>
+        <v>4.6018995394797</v>
       </c>
       <c r="D14">
-        <v>10.45584605869535</v>
+        <v>10.45584605869556</v>
       </c>
       <c r="E14">
-        <v>15.29463867288151</v>
+        <v>15.29463867288149</v>
       </c>
       <c r="F14">
-        <v>97.5794276278358</v>
+        <v>97.5794276278361</v>
       </c>
       <c r="G14">
-        <v>77.45309875595289</v>
+        <v>77.45309875595319</v>
       </c>
       <c r="H14">
-        <v>72.31770345123869</v>
+        <v>72.31770345123898</v>
       </c>
       <c r="I14">
-        <v>16.25035754618211</v>
+        <v>16.25035754618213</v>
       </c>
       <c r="K14">
         <v>13.75243194539064</v>
@@ -789,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4.558294695445968</v>
+        <v>4.55829469544584</v>
       </c>
       <c r="D15">
-        <v>10.35338101336685</v>
+        <v>10.35338101336666</v>
       </c>
       <c r="E15">
-        <v>15.14655588559609</v>
+        <v>15.146555885596</v>
       </c>
       <c r="F15">
-        <v>96.64936820250014</v>
+        <v>96.64936820249922</v>
       </c>
       <c r="G15">
-        <v>76.71184940114063</v>
+        <v>76.71184940113983</v>
       </c>
       <c r="H15">
-        <v>71.62650124331989</v>
+        <v>71.62650124331917</v>
       </c>
       <c r="I15">
-        <v>16.09388106566417</v>
+        <v>16.09388106566407</v>
       </c>
       <c r="K15">
-        <v>13.62071104122089</v>
+        <v>13.62071104122082</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -818,28 +818,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>4.322058721170158</v>
+        <v>4.322058721170065</v>
       </c>
       <c r="D16">
-        <v>9.794671360505303</v>
+        <v>9.794671360505347</v>
       </c>
       <c r="E16">
         <v>14.33575727924318</v>
       </c>
       <c r="F16">
-        <v>91.55284372585092</v>
+        <v>91.55284372585106</v>
       </c>
       <c r="G16">
-        <v>72.65023517787949</v>
+        <v>72.65023517787965</v>
       </c>
       <c r="H16">
-        <v>67.83836483643155</v>
+        <v>67.83836483643174</v>
       </c>
       <c r="I16">
-        <v>15.23796889350662</v>
+        <v>15.23796889350667</v>
       </c>
       <c r="K16">
-        <v>12.90000525072409</v>
+        <v>12.90000525072411</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -847,28 +847,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.186182561963371</v>
+        <v>4.186182561963111</v>
       </c>
       <c r="D17">
-        <v>9.470646140524948</v>
+        <v>9.47064614052502</v>
       </c>
       <c r="E17">
-        <v>13.86316064241539</v>
+        <v>13.86316064241548</v>
       </c>
       <c r="F17">
-        <v>88.57971841424124</v>
+        <v>88.57971841424153</v>
       </c>
       <c r="G17">
-        <v>70.28088127090943</v>
+        <v>70.28088127090973</v>
       </c>
       <c r="H17">
-        <v>65.62799229546353</v>
+        <v>65.62799229546383</v>
       </c>
       <c r="I17">
-        <v>14.73965871448855</v>
+        <v>14.73965871448865</v>
       </c>
       <c r="K17">
-        <v>12.48026933645876</v>
+        <v>12.48026933645875</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,28 +876,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>4.110438693757744</v>
+        <v>4.110438693757803</v>
       </c>
       <c r="D18">
-        <v>9.289191636661265</v>
+        <v>9.289191636661084</v>
       </c>
       <c r="E18">
-        <v>13.59781638200937</v>
+        <v>13.59781638200929</v>
       </c>
       <c r="F18">
-        <v>86.90990597968752</v>
+        <v>86.90990597968676</v>
       </c>
       <c r="G18">
-        <v>68.95012227083201</v>
+        <v>68.9501222708314</v>
       </c>
       <c r="H18">
-        <v>64.3863574076139</v>
+        <v>64.38635740761333</v>
       </c>
       <c r="I18">
-        <v>14.46004072911508</v>
+        <v>14.46004072911498</v>
       </c>
       <c r="K18">
-        <v>12.24470130970216</v>
+        <v>12.24470130970209</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,25 +905,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.085141124660101</v>
+        <v>4.08514112466009</v>
       </c>
       <c r="D19">
-        <v>9.228457169747429</v>
+        <v>9.2284571697472</v>
       </c>
       <c r="E19">
-        <v>13.5088982692511</v>
+        <v>13.50889826925114</v>
       </c>
       <c r="F19">
-        <v>86.35028490620157</v>
+        <v>86.35028490620122</v>
       </c>
       <c r="G19">
-        <v>68.50411895435697</v>
+        <v>68.50411895435667</v>
       </c>
       <c r="H19">
-        <v>63.97019759238211</v>
+        <v>63.97019759238185</v>
       </c>
       <c r="I19">
-        <v>14.36636376648003</v>
+        <v>14.36636376647998</v>
       </c>
       <c r="K19">
         <v>12.1657757618629</v>
@@ -934,28 +934,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>4.200380880319708</v>
+        <v>4.200380880319594</v>
       </c>
       <c r="D20">
-        <v>9.504594513350348</v>
+        <v>9.504594513350114</v>
       </c>
       <c r="E20">
-        <v>13.91275044868816</v>
+        <v>13.91275044868811</v>
       </c>
       <c r="F20">
-        <v>88.89175193604849</v>
+        <v>88.89175193604758</v>
       </c>
       <c r="G20">
-        <v>70.52955177048989</v>
+        <v>70.52955177048915</v>
       </c>
       <c r="H20">
-        <v>65.85999548446971</v>
+        <v>65.859995484469</v>
       </c>
       <c r="I20">
-        <v>14.79192864741017</v>
+        <v>14.79192864741004</v>
       </c>
       <c r="K20">
-        <v>12.52430173421019</v>
+        <v>12.52430173421015</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,28 +963,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>4.623108941139814</v>
+        <v>4.62310894113963</v>
       </c>
       <c r="D21">
-        <v>10.50560870232774</v>
+        <v>10.50560870232765</v>
       </c>
       <c r="E21">
-        <v>15.3664825448272</v>
+        <v>15.36648254482712</v>
       </c>
       <c r="F21">
-        <v>98.03055649115137</v>
+        <v>98.03055649115088</v>
       </c>
       <c r="G21">
-        <v>77.81265327824717</v>
+        <v>77.8126532782468</v>
       </c>
       <c r="H21">
-        <v>72.65296584589616</v>
+        <v>72.65296584589585</v>
       </c>
       <c r="I21">
-        <v>16.32629242534793</v>
+        <v>16.32629242534786</v>
       </c>
       <c r="K21">
-        <v>13.81634894520639</v>
+        <v>13.81634894520634</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,28 +992,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>4.948858054349976</v>
+        <v>4.948858054349861</v>
       </c>
       <c r="D22">
-        <v>11.26339727148917</v>
+        <v>11.26339727148904</v>
       </c>
       <c r="E22">
-        <v>16.4540855595224</v>
+        <v>16.4540855595223</v>
       </c>
       <c r="F22">
-        <v>104.8506073197785</v>
+        <v>104.8506073197781</v>
       </c>
       <c r="G22">
-        <v>83.24932985746072</v>
+        <v>83.24932985746038</v>
       </c>
       <c r="H22">
-        <v>77.72096914645917</v>
+        <v>77.72096914645886</v>
       </c>
       <c r="I22">
-        <v>17.4774998040102</v>
+        <v>17.47749980401006</v>
       </c>
       <c r="K22">
-        <v>14.78496176092008</v>
+        <v>14.78496176091996</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>4.7681466180115</v>
+        <v>4.768146618011492</v>
       </c>
       <c r="D23">
-        <v>10.84454009653152</v>
+        <v>10.84454009653155</v>
       </c>
       <c r="E23">
-        <v>15.85447555483392</v>
+        <v>15.85447555483402</v>
       </c>
       <c r="F23">
-        <v>101.0929295936452</v>
+        <v>101.0929295936453</v>
       </c>
       <c r="G23">
-        <v>80.25358602120325</v>
+        <v>80.25358602120336</v>
       </c>
       <c r="H23">
-        <v>74.9286989491159</v>
+        <v>74.92869894911603</v>
       </c>
       <c r="I23">
-        <v>16.84241713502206</v>
+        <v>16.84241713502217</v>
       </c>
       <c r="K23">
-        <v>14.25070668693652</v>
+        <v>14.25070668693662</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>4.193954635874953</v>
+        <v>4.1939546358751</v>
       </c>
       <c r="D24">
-        <v>9.489231848243458</v>
+        <v>9.48923184824374</v>
       </c>
       <c r="E24">
-        <v>13.89031169027778</v>
+        <v>13.89031169027773</v>
       </c>
       <c r="F24">
-        <v>88.75056227143573</v>
+        <v>88.75056227143625</v>
       </c>
       <c r="G24">
-        <v>70.41703291438671</v>
+        <v>70.41703291438718</v>
       </c>
       <c r="H24">
-        <v>65.75501880356521</v>
+        <v>65.75501880356556</v>
       </c>
       <c r="I24">
-        <v>14.76827666358318</v>
+        <v>14.76827666358325</v>
       </c>
       <c r="K24">
-        <v>12.50437733467474</v>
+        <v>12.50437733467481</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,28 +1079,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>3.66840966193026</v>
+        <v>3.668409661930035</v>
       </c>
       <c r="D25">
-        <v>8.218603980153679</v>
+        <v>8.218603980153675</v>
       </c>
       <c r="E25">
-        <v>12.02353078600644</v>
+        <v>12.02353078600645</v>
       </c>
       <c r="F25">
-        <v>77.00186189109081</v>
+        <v>77.00186189109063</v>
       </c>
       <c r="G25">
-        <v>61.051813187647</v>
+        <v>61.05181318764682</v>
       </c>
       <c r="H25">
-        <v>57.01467361298315</v>
+        <v>57.01467361298302</v>
       </c>
       <c r="I25">
-        <v>12.80301513201128</v>
+        <v>12.80301513201124</v>
       </c>
       <c r="K25">
-        <v>10.84822260567611</v>
+        <v>10.84822260567606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
@@ -415,25 +415,25 @@
         <v>3.306580552353334</v>
       </c>
       <c r="D2">
-        <v>7.327156663708273</v>
+        <v>7.327156663708155</v>
       </c>
       <c r="E2">
-        <v>10.70327828253581</v>
+        <v>10.70327828253595</v>
       </c>
       <c r="F2">
-        <v>68.70504389335366</v>
+        <v>68.70504389335386</v>
       </c>
       <c r="G2">
-        <v>54.43227121822056</v>
+        <v>54.43227121822068</v>
       </c>
       <c r="H2">
-        <v>50.83353513243035</v>
+        <v>50.83353513243046</v>
       </c>
       <c r="I2">
-        <v>11.41519124348515</v>
+        <v>11.41519124348518</v>
       </c>
       <c r="K2">
-        <v>9.678134770298383</v>
+        <v>9.678134770298485</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -441,28 +441,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.065023404165358</v>
+        <v>3.065023404165323</v>
       </c>
       <c r="D3">
-        <v>6.72378178067037</v>
+        <v>6.723781780670393</v>
       </c>
       <c r="E3">
-        <v>9.911002364024393</v>
+        <v>9.911002364024418</v>
       </c>
       <c r="F3">
-        <v>63.08278686006484</v>
+        <v>63.08278686006506</v>
       </c>
       <c r="G3">
-        <v>49.94141329871331</v>
+        <v>49.94141329871348</v>
       </c>
       <c r="H3">
-        <v>46.63853901651947</v>
+        <v>46.63853901651965</v>
       </c>
       <c r="I3">
-        <v>10.47237967375409</v>
+        <v>10.47237967375407</v>
       </c>
       <c r="K3">
-        <v>8.88308940080695</v>
+        <v>8.883089400806874</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -470,28 +470,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.916222400111448</v>
+        <v>2.916222400111176</v>
       </c>
       <c r="D4">
-        <v>6.348409192774275</v>
+        <v>6.348409192774332</v>
       </c>
       <c r="E4">
         <v>9.457169555645388</v>
       </c>
       <c r="F4">
-        <v>59.58842892594642</v>
+        <v>59.58842892594654</v>
       </c>
       <c r="G4">
-        <v>47.14721032976971</v>
+        <v>47.14721032976982</v>
       </c>
       <c r="H4">
-        <v>44.02773489061764</v>
+        <v>44.02773489061777</v>
       </c>
       <c r="I4">
-        <v>9.884577821922329</v>
+        <v>9.88457782192239</v>
       </c>
       <c r="K4">
-        <v>8.464632037048691</v>
+        <v>8.464632037048727</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -499,28 +499,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.85521961299504</v>
+        <v>2.855219612994918</v>
       </c>
       <c r="D5">
-        <v>6.193627455854927</v>
+        <v>6.193627455855029</v>
       </c>
       <c r="E5">
-        <v>9.272914782047927</v>
+        <v>9.272914782047962</v>
       </c>
       <c r="F5">
-        <v>58.14927344462532</v>
+        <v>58.14927344462556</v>
       </c>
       <c r="G5">
-        <v>45.99557690006787</v>
+        <v>45.99557690006811</v>
       </c>
       <c r="H5">
-        <v>42.95152472779893</v>
+        <v>42.95152472779917</v>
       </c>
       <c r="I5">
-        <v>9.653130623077113</v>
+        <v>9.653130623077143</v>
       </c>
       <c r="K5">
-        <v>8.314217686366808</v>
+        <v>8.314217686366829</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -528,28 +528,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.84506220349654</v>
+        <v>2.845062203496627</v>
       </c>
       <c r="D6">
         <v>6.167801965928978</v>
       </c>
       <c r="E6">
-        <v>9.242348617397262</v>
+        <v>9.242348617397294</v>
       </c>
       <c r="F6">
-        <v>57.90927633274527</v>
+        <v>57.90927633274541</v>
       </c>
       <c r="G6">
-        <v>45.80347484449918</v>
+        <v>45.80347484449929</v>
       </c>
       <c r="H6">
-        <v>42.77199411658819</v>
+        <v>42.7719941165883</v>
       </c>
       <c r="I6">
-        <v>9.622263312258742</v>
+        <v>9.622263312258751</v>
       </c>
       <c r="K6">
-        <v>8.289312471792684</v>
+        <v>8.289312471792691</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -557,28 +557,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.915401447660476</v>
+        <v>2.915401447660412</v>
       </c>
       <c r="D7">
-        <v>6.346329770361531</v>
+        <v>6.346329770361543</v>
       </c>
       <c r="E7">
-        <v>9.454682432433309</v>
+        <v>9.454682432433332</v>
       </c>
       <c r="F7">
-        <v>59.56908653282632</v>
+        <v>59.56908653282652</v>
       </c>
       <c r="G7">
-        <v>47.13173573952128</v>
+        <v>47.13173573952141</v>
       </c>
       <c r="H7">
-        <v>44.01327442513566</v>
+        <v>44.01327442513577</v>
       </c>
       <c r="I7">
-        <v>9.881319067411894</v>
+        <v>9.881319067411857</v>
       </c>
       <c r="K7">
-        <v>8.462598530025019</v>
+        <v>8.462598530025057</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,28 +586,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3.223222214988591</v>
+        <v>3.223222214988669</v>
       </c>
       <c r="D8">
-        <v>7.119730605486</v>
+        <v>7.11973060548585</v>
       </c>
       <c r="E8">
-        <v>10.39911261982537</v>
+        <v>10.39911261982539</v>
       </c>
       <c r="F8">
-        <v>66.77209233621922</v>
+        <v>66.77209233621927</v>
       </c>
       <c r="G8">
-        <v>52.88888120929347</v>
+        <v>52.88888120929348</v>
       </c>
       <c r="H8">
-        <v>49.39197215153409</v>
+        <v>49.39197215153413</v>
       </c>
       <c r="I8">
-        <v>11.09136847501321</v>
+        <v>11.0913684750132</v>
       </c>
       <c r="K8">
-        <v>9.40507452932493</v>
+        <v>9.405074529324958</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -618,22 +618,22 @@
         <v>3.83928332580798</v>
       </c>
       <c r="D9">
-        <v>8.634813499374214</v>
+        <v>8.63481349937431</v>
       </c>
       <c r="E9">
-        <v>12.63720571419458</v>
+        <v>12.63720571419456</v>
       </c>
       <c r="F9">
-        <v>80.86359183716351</v>
+        <v>80.86359183716411</v>
       </c>
       <c r="G9">
-        <v>64.13081746077619</v>
+        <v>64.13081746077665</v>
       </c>
       <c r="H9">
-        <v>59.88884776747796</v>
+        <v>59.8888477674784</v>
       </c>
       <c r="I9">
-        <v>13.44859448807555</v>
+        <v>13.44859448807559</v>
       </c>
       <c r="K9">
         <v>11.39238256211355</v>
@@ -644,25 +644,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.337947497921365</v>
+        <v>4.337947497921409</v>
       </c>
       <c r="D10">
-        <v>9.83243572445164</v>
+        <v>9.832435724451821</v>
       </c>
       <c r="E10">
-        <v>14.39072936337592</v>
+        <v>14.39072936337594</v>
       </c>
       <c r="F10">
-        <v>91.89857695452194</v>
+        <v>91.89857695452228</v>
       </c>
       <c r="G10">
-        <v>72.92575592567729</v>
+        <v>72.92575592567763</v>
       </c>
       <c r="H10">
-        <v>68.09537276437841</v>
+        <v>68.09537276437869</v>
       </c>
       <c r="I10">
-        <v>15.29595795008028</v>
+        <v>15.29595795008036</v>
       </c>
       <c r="K10">
         <v>12.94884409433642</v>
@@ -673,28 +673,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.593496793769511</v>
+        <v>4.593496793769139</v>
       </c>
       <c r="D11">
-        <v>10.43611721996124</v>
+        <v>10.43611721996109</v>
       </c>
       <c r="E11">
-        <v>15.26614217961345</v>
+        <v>15.26614217961343</v>
       </c>
       <c r="F11">
-        <v>97.40047153870768</v>
+        <v>97.40047153870712</v>
       </c>
       <c r="G11">
-        <v>77.31047048378939</v>
+        <v>77.31047048378889</v>
       </c>
       <c r="H11">
-        <v>72.1847084839432</v>
+        <v>72.18470848394277</v>
       </c>
       <c r="I11">
-        <v>16.22024179890866</v>
+        <v>16.22024179890861</v>
       </c>
       <c r="K11">
-        <v>13.72708166368736</v>
+        <v>13.72708166368728</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -702,28 +702,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.697872985433524</v>
+        <v>4.697872985433515</v>
       </c>
       <c r="D12">
-        <v>10.68062080643646</v>
+        <v>10.68062080643635</v>
       </c>
       <c r="E12">
-        <v>15.61876098765399</v>
+        <v>15.6187609876539</v>
       </c>
       <c r="F12">
-        <v>99.61414161378471</v>
+        <v>99.61414161378426</v>
       </c>
       <c r="G12">
-        <v>79.0748401777339</v>
+        <v>79.07484017773351</v>
       </c>
       <c r="H12">
-        <v>73.82979260653053</v>
+        <v>73.82979260653015</v>
       </c>
       <c r="I12">
-        <v>16.59303722688354</v>
+        <v>16.59303722688341</v>
       </c>
       <c r="K12">
-        <v>14.04085307702559</v>
+        <v>14.04085307702551</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -731,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.674962080300238</v>
+        <v>4.67496208030033</v>
       </c>
       <c r="D13">
-        <v>10.62705680424148</v>
+        <v>10.62705680424157</v>
       </c>
       <c r="E13">
-        <v>15.54161477780512</v>
+        <v>15.54161477780511</v>
       </c>
       <c r="F13">
-        <v>99.12997771698836</v>
+        <v>99.12997771698828</v>
       </c>
       <c r="G13">
-        <v>78.68893092466588</v>
+        <v>78.68893092466585</v>
       </c>
       <c r="H13">
-        <v>73.46999606998558</v>
+        <v>73.46999606998553</v>
       </c>
       <c r="I13">
-        <v>16.51145021826576</v>
+        <v>16.51145021826578</v>
       </c>
       <c r="K13">
-        <v>13.97218993471403</v>
+        <v>13.97218993471401</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -760,25 +760,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4.6018995394797</v>
+        <v>4.601899539479487</v>
       </c>
       <c r="D14">
-        <v>10.45584605869556</v>
+        <v>10.45584605869535</v>
       </c>
       <c r="E14">
-        <v>15.29463867288149</v>
+        <v>15.29463867288151</v>
       </c>
       <c r="F14">
-        <v>97.5794276278361</v>
+        <v>97.5794276278358</v>
       </c>
       <c r="G14">
-        <v>77.45309875595319</v>
+        <v>77.45309875595289</v>
       </c>
       <c r="H14">
-        <v>72.31770345123898</v>
+        <v>72.31770345123869</v>
       </c>
       <c r="I14">
-        <v>16.25035754618213</v>
+        <v>16.25035754618211</v>
       </c>
       <c r="K14">
         <v>13.75243194539064</v>
@@ -789,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4.55829469544584</v>
+        <v>4.558294695445968</v>
       </c>
       <c r="D15">
-        <v>10.35338101336666</v>
+        <v>10.35338101336685</v>
       </c>
       <c r="E15">
-        <v>15.146555885596</v>
+        <v>15.14655588559609</v>
       </c>
       <c r="F15">
-        <v>96.64936820249922</v>
+        <v>96.64936820250014</v>
       </c>
       <c r="G15">
-        <v>76.71184940113983</v>
+        <v>76.71184940114063</v>
       </c>
       <c r="H15">
-        <v>71.62650124331917</v>
+        <v>71.62650124331989</v>
       </c>
       <c r="I15">
-        <v>16.09388106566407</v>
+        <v>16.09388106566417</v>
       </c>
       <c r="K15">
-        <v>13.62071104122082</v>
+        <v>13.62071104122089</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -818,28 +818,28 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>4.322058721170065</v>
+        <v>4.322058721170158</v>
       </c>
       <c r="D16">
-        <v>9.794671360505347</v>
+        <v>9.794671360505303</v>
       </c>
       <c r="E16">
         <v>14.33575727924318</v>
       </c>
       <c r="F16">
-        <v>91.55284372585106</v>
+        <v>91.55284372585092</v>
       </c>
       <c r="G16">
-        <v>72.65023517787965</v>
+        <v>72.65023517787949</v>
       </c>
       <c r="H16">
-        <v>67.83836483643174</v>
+        <v>67.83836483643155</v>
       </c>
       <c r="I16">
-        <v>15.23796889350667</v>
+        <v>15.23796889350662</v>
       </c>
       <c r="K16">
-        <v>12.90000525072411</v>
+        <v>12.90000525072409</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -847,28 +847,28 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.186182561963111</v>
+        <v>4.186182561963371</v>
       </c>
       <c r="D17">
-        <v>9.47064614052502</v>
+        <v>9.470646140524948</v>
       </c>
       <c r="E17">
-        <v>13.86316064241548</v>
+        <v>13.86316064241539</v>
       </c>
       <c r="F17">
-        <v>88.57971841424153</v>
+        <v>88.57971841424124</v>
       </c>
       <c r="G17">
-        <v>70.28088127090973</v>
+        <v>70.28088127090943</v>
       </c>
       <c r="H17">
-        <v>65.62799229546383</v>
+        <v>65.62799229546353</v>
       </c>
       <c r="I17">
-        <v>14.73965871448865</v>
+        <v>14.73965871448855</v>
       </c>
       <c r="K17">
-        <v>12.48026933645875</v>
+        <v>12.48026933645876</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -876,28 +876,28 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>4.110438693757803</v>
+        <v>4.110438693757744</v>
       </c>
       <c r="D18">
-        <v>9.289191636661084</v>
+        <v>9.289191636661265</v>
       </c>
       <c r="E18">
-        <v>13.59781638200929</v>
+        <v>13.59781638200937</v>
       </c>
       <c r="F18">
-        <v>86.90990597968676</v>
+        <v>86.90990597968752</v>
       </c>
       <c r="G18">
-        <v>68.9501222708314</v>
+        <v>68.95012227083201</v>
       </c>
       <c r="H18">
-        <v>64.38635740761333</v>
+        <v>64.3863574076139</v>
       </c>
       <c r="I18">
-        <v>14.46004072911498</v>
+        <v>14.46004072911508</v>
       </c>
       <c r="K18">
-        <v>12.24470130970209</v>
+        <v>12.24470130970216</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -905,25 +905,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.08514112466009</v>
+        <v>4.085141124660101</v>
       </c>
       <c r="D19">
-        <v>9.2284571697472</v>
+        <v>9.228457169747429</v>
       </c>
       <c r="E19">
-        <v>13.50889826925114</v>
+        <v>13.5088982692511</v>
       </c>
       <c r="F19">
-        <v>86.35028490620122</v>
+        <v>86.35028490620157</v>
       </c>
       <c r="G19">
-        <v>68.50411895435667</v>
+        <v>68.50411895435697</v>
       </c>
       <c r="H19">
-        <v>63.97019759238185</v>
+        <v>63.97019759238211</v>
       </c>
       <c r="I19">
-        <v>14.36636376647998</v>
+        <v>14.36636376648003</v>
       </c>
       <c r="K19">
         <v>12.1657757618629</v>
@@ -934,28 +934,28 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>4.200380880319594</v>
+        <v>4.200380880319708</v>
       </c>
       <c r="D20">
-        <v>9.504594513350114</v>
+        <v>9.504594513350348</v>
       </c>
       <c r="E20">
-        <v>13.91275044868811</v>
+        <v>13.91275044868816</v>
       </c>
       <c r="F20">
-        <v>88.89175193604758</v>
+        <v>88.89175193604849</v>
       </c>
       <c r="G20">
-        <v>70.52955177048915</v>
+        <v>70.52955177048989</v>
       </c>
       <c r="H20">
-        <v>65.859995484469</v>
+        <v>65.85999548446971</v>
       </c>
       <c r="I20">
-        <v>14.79192864741004</v>
+        <v>14.79192864741017</v>
       </c>
       <c r="K20">
-        <v>12.52430173421015</v>
+        <v>12.52430173421019</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -963,28 +963,28 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>4.62310894113963</v>
+        <v>4.623108941139814</v>
       </c>
       <c r="D21">
-        <v>10.50560870232765</v>
+        <v>10.50560870232774</v>
       </c>
       <c r="E21">
-        <v>15.36648254482712</v>
+        <v>15.3664825448272</v>
       </c>
       <c r="F21">
-        <v>98.03055649115088</v>
+        <v>98.03055649115137</v>
       </c>
       <c r="G21">
-        <v>77.8126532782468</v>
+        <v>77.81265327824717</v>
       </c>
       <c r="H21">
-        <v>72.65296584589585</v>
+        <v>72.65296584589616</v>
       </c>
       <c r="I21">
-        <v>16.32629242534786</v>
+        <v>16.32629242534793</v>
       </c>
       <c r="K21">
-        <v>13.81634894520634</v>
+        <v>13.81634894520639</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -992,28 +992,28 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>4.948858054349861</v>
+        <v>4.948858054349976</v>
       </c>
       <c r="D22">
-        <v>11.26339727148904</v>
+        <v>11.26339727148917</v>
       </c>
       <c r="E22">
-        <v>16.4540855595223</v>
+        <v>16.4540855595224</v>
       </c>
       <c r="F22">
-        <v>104.8506073197781</v>
+        <v>104.8506073197785</v>
       </c>
       <c r="G22">
-        <v>83.24932985746038</v>
+        <v>83.24932985746072</v>
       </c>
       <c r="H22">
-        <v>77.72096914645886</v>
+        <v>77.72096914645917</v>
       </c>
       <c r="I22">
-        <v>17.47749980401006</v>
+        <v>17.4774998040102</v>
       </c>
       <c r="K22">
-        <v>14.78496176091996</v>
+        <v>14.78496176092008</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1021,28 +1021,28 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>4.768146618011492</v>
+        <v>4.7681466180115</v>
       </c>
       <c r="D23">
-        <v>10.84454009653155</v>
+        <v>10.84454009653152</v>
       </c>
       <c r="E23">
-        <v>15.85447555483402</v>
+        <v>15.85447555483392</v>
       </c>
       <c r="F23">
-        <v>101.0929295936453</v>
+        <v>101.0929295936452</v>
       </c>
       <c r="G23">
-        <v>80.25358602120336</v>
+        <v>80.25358602120325</v>
       </c>
       <c r="H23">
-        <v>74.92869894911603</v>
+        <v>74.9286989491159</v>
       </c>
       <c r="I23">
-        <v>16.84241713502217</v>
+        <v>16.84241713502206</v>
       </c>
       <c r="K23">
-        <v>14.25070668693662</v>
+        <v>14.25070668693652</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1050,28 +1050,28 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>4.1939546358751</v>
+        <v>4.193954635874953</v>
       </c>
       <c r="D24">
-        <v>9.48923184824374</v>
+        <v>9.489231848243458</v>
       </c>
       <c r="E24">
-        <v>13.89031169027773</v>
+        <v>13.89031169027778</v>
       </c>
       <c r="F24">
-        <v>88.75056227143625</v>
+        <v>88.75056227143573</v>
       </c>
       <c r="G24">
-        <v>70.41703291438718</v>
+        <v>70.41703291438671</v>
       </c>
       <c r="H24">
-        <v>65.75501880356556</v>
+        <v>65.75501880356521</v>
       </c>
       <c r="I24">
-        <v>14.76827666358325</v>
+        <v>14.76827666358318</v>
       </c>
       <c r="K24">
-        <v>12.50437733467481</v>
+        <v>12.50437733467474</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1079,28 +1079,28 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>3.668409661930035</v>
+        <v>3.66840966193026</v>
       </c>
       <c r="D25">
-        <v>8.218603980153675</v>
+        <v>8.218603980153679</v>
       </c>
       <c r="E25">
-        <v>12.02353078600645</v>
+        <v>12.02353078600644</v>
       </c>
       <c r="F25">
-        <v>77.00186189109063</v>
+        <v>77.00186189109081</v>
       </c>
       <c r="G25">
-        <v>61.05181318764682</v>
+        <v>61.051813187647</v>
       </c>
       <c r="H25">
-        <v>57.01467361298302</v>
+        <v>57.01467361298315</v>
       </c>
       <c r="I25">
-        <v>12.80301513201124</v>
+        <v>12.80301513201128</v>
       </c>
       <c r="K25">
-        <v>10.84822260567606</v>
+        <v>10.84822260567611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,701 +406,776 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.306580552353334</v>
+        <v>3.296965656499187</v>
       </c>
       <c r="D2">
-        <v>7.327156663708155</v>
+        <v>7.313626350408269</v>
       </c>
       <c r="E2">
-        <v>10.70327828253595</v>
+        <v>10.70485932701625</v>
       </c>
       <c r="F2">
-        <v>68.70504389335386</v>
+        <v>68.64238729649408</v>
       </c>
       <c r="G2">
-        <v>54.43227121822068</v>
+        <v>54.51230155960896</v>
       </c>
       <c r="H2">
-        <v>50.83353513243046</v>
+        <v>54.26574503343033</v>
       </c>
       <c r="I2">
-        <v>11.41519124348518</v>
-      </c>
-      <c r="K2">
-        <v>9.678134770298485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>50.78620313858845</v>
+      </c>
+      <c r="J2">
+        <v>11.41022455258565</v>
+      </c>
+      <c r="L2">
+        <v>9.675948194330639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.065023404165323</v>
+        <v>3.056433197946789</v>
       </c>
       <c r="D3">
-        <v>6.723781780670393</v>
+        <v>6.711643771586011</v>
       </c>
       <c r="E3">
-        <v>9.911002364024418</v>
+        <v>9.91283983726124</v>
       </c>
       <c r="F3">
-        <v>63.08278686006506</v>
+        <v>63.02749422803273</v>
       </c>
       <c r="G3">
-        <v>49.94141329871348</v>
+        <v>50.01669668679662</v>
       </c>
       <c r="H3">
-        <v>46.63853901651965</v>
+        <v>49.83173336600904</v>
       </c>
       <c r="I3">
-        <v>10.47237967375407</v>
-      </c>
-      <c r="K3">
-        <v>8.883089400806874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>46.5967184783937</v>
+      </c>
+      <c r="J3">
+        <v>10.46819162453721</v>
+      </c>
+      <c r="L3">
+        <v>8.88138945121538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.916222400111176</v>
+        <v>2.908260741273488</v>
       </c>
       <c r="D4">
-        <v>6.348409192774332</v>
+        <v>6.337100890494984</v>
       </c>
       <c r="E4">
-        <v>9.457169555645388</v>
+        <v>9.459054919205379</v>
       </c>
       <c r="F4">
-        <v>59.58842892594654</v>
+        <v>59.53735911763543</v>
       </c>
       <c r="G4">
-        <v>47.14721032976982</v>
+        <v>47.21926324788908</v>
       </c>
       <c r="H4">
-        <v>44.02773489061777</v>
+        <v>47.07731923633408</v>
       </c>
       <c r="I4">
-        <v>9.88457782192239</v>
-      </c>
-      <c r="K4">
-        <v>8.464632037048727</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>43.98907779483354</v>
+      </c>
+      <c r="J4">
+        <v>9.880815291739808</v>
+      </c>
+      <c r="L4">
+        <v>8.463703339458309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.855219612994918</v>
+        <v>2.847515891874898</v>
       </c>
       <c r="D5">
-        <v>6.193627455855029</v>
+        <v>6.182654440170949</v>
       </c>
       <c r="E5">
-        <v>9.272914782047962</v>
+        <v>9.274809122815153</v>
       </c>
       <c r="F5">
-        <v>58.14927344462556</v>
+        <v>58.09987444631363</v>
       </c>
       <c r="G5">
-        <v>45.99557690006811</v>
+        <v>46.06624541033921</v>
       </c>
       <c r="H5">
-        <v>42.95152472779917</v>
+        <v>45.94326884935183</v>
       </c>
       <c r="I5">
-        <v>9.653130623077143</v>
-      </c>
-      <c r="K5">
-        <v>8.314217686366829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>42.91411997525364</v>
+      </c>
+      <c r="J5">
+        <v>9.650339279257656</v>
+      </c>
+      <c r="L5">
+        <v>8.313369071845646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.845062203496627</v>
+        <v>2.83740146871256</v>
       </c>
       <c r="D6">
-        <v>6.167801965928978</v>
+        <v>6.156884536809923</v>
       </c>
       <c r="E6">
-        <v>9.242348617397294</v>
+        <v>9.24424388398962</v>
       </c>
       <c r="F6">
-        <v>57.90927633274541</v>
+        <v>57.860152332934</v>
       </c>
       <c r="G6">
-        <v>45.80347484449929</v>
+        <v>45.87390962844287</v>
       </c>
       <c r="H6">
-        <v>42.7719941165883</v>
+        <v>45.75417352658864</v>
       </c>
       <c r="I6">
-        <v>9.622263312258751</v>
-      </c>
-      <c r="K6">
-        <v>8.289312471792691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>42.73479552773432</v>
+      </c>
+      <c r="J6">
+        <v>9.619496146986538</v>
+      </c>
+      <c r="L6">
+        <v>8.288476691138658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.915401447660412</v>
+        <v>2.907443257978588</v>
       </c>
       <c r="D7">
-        <v>6.346329770361543</v>
+        <v>6.335025997442978</v>
       </c>
       <c r="E7">
-        <v>9.454682432433332</v>
+        <v>9.456567956382644</v>
       </c>
       <c r="F7">
-        <v>59.56908653282652</v>
+        <v>59.5180394329388</v>
       </c>
       <c r="G7">
-        <v>47.13173573952141</v>
+        <v>47.20377025009987</v>
       </c>
       <c r="H7">
-        <v>44.01327442513577</v>
+        <v>47.06207603836885</v>
       </c>
       <c r="I7">
-        <v>9.881319067411857</v>
-      </c>
-      <c r="K7">
-        <v>8.462598530025057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>43.97463434751459</v>
+      </c>
+      <c r="J7">
+        <v>9.877558784019001</v>
+      </c>
+      <c r="L7">
+        <v>8.461670944922377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3.223222214988669</v>
+        <v>3.213962132657104</v>
       </c>
       <c r="D8">
-        <v>7.11973060548585</v>
+        <v>7.106688077985305</v>
       </c>
       <c r="E8">
-        <v>10.39911261982539</v>
+        <v>10.40085461193138</v>
       </c>
       <c r="F8">
-        <v>66.77209233621927</v>
+        <v>66.71205490309772</v>
       </c>
       <c r="G8">
-        <v>52.88888120929348</v>
+        <v>52.9673488022007</v>
       </c>
       <c r="H8">
-        <v>49.39197215153413</v>
+        <v>52.74102231789701</v>
       </c>
       <c r="I8">
-        <v>11.0913684750132</v>
-      </c>
-      <c r="K8">
-        <v>9.405074529324958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>49.34659976325489</v>
+      </c>
+      <c r="J8">
+        <v>11.08668402290131</v>
+      </c>
+      <c r="L8">
+        <v>9.403067521020844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.83928332580798</v>
+        <v>3.827328313529881</v>
       </c>
       <c r="D9">
-        <v>8.63481349937431</v>
+        <v>8.617907128188474</v>
       </c>
       <c r="E9">
-        <v>12.63720571419456</v>
+        <v>12.637785319732</v>
       </c>
       <c r="F9">
-        <v>80.86359183716411</v>
+        <v>80.78167914904132</v>
       </c>
       <c r="G9">
-        <v>64.13081746077665</v>
+        <v>64.21846644631951</v>
       </c>
       <c r="H9">
-        <v>59.8888477674784</v>
+        <v>63.86243073197834</v>
       </c>
       <c r="I9">
-        <v>13.44859448807559</v>
-      </c>
-      <c r="K9">
-        <v>11.39238256211355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>59.82712624896544</v>
+      </c>
+      <c r="J9">
+        <v>13.44138228464957</v>
+      </c>
+      <c r="L9">
+        <v>11.38867153168521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.337947497921409</v>
+        <v>4.323553540631976</v>
       </c>
       <c r="D10">
-        <v>9.832435724451821</v>
+        <v>9.811698930043606</v>
       </c>
       <c r="E10">
-        <v>14.39072936337594</v>
+        <v>14.38934364495119</v>
       </c>
       <c r="F10">
-        <v>91.89857695452228</v>
+        <v>91.79260897235913</v>
       </c>
       <c r="G10">
-        <v>72.92575592567763</v>
+        <v>73.01507120868006</v>
       </c>
       <c r="H10">
-        <v>68.09537276437869</v>
+        <v>72.57915025140058</v>
       </c>
       <c r="I10">
-        <v>15.29595795008036</v>
-      </c>
-      <c r="K10">
-        <v>12.94884409433642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>68.01570408827018</v>
+      </c>
+      <c r="J10">
+        <v>15.28557664687626</v>
+      </c>
+      <c r="L10">
+        <v>12.94280229204853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.593496793769139</v>
+        <v>4.577664992107444</v>
       </c>
       <c r="D11">
-        <v>10.43611721996109</v>
+        <v>10.41297186567648</v>
       </c>
       <c r="E11">
-        <v>15.26614217961343</v>
+        <v>15.26310636411331</v>
       </c>
       <c r="F11">
-        <v>97.40047153870712</v>
+        <v>97.27836452792438</v>
       </c>
       <c r="G11">
-        <v>77.31047048378889</v>
+        <v>77.39730076995919</v>
       </c>
       <c r="H11">
-        <v>72.18470848394277</v>
+        <v>76.92653762159981</v>
       </c>
       <c r="I11">
-        <v>16.22024179890861</v>
-      </c>
-      <c r="K11">
-        <v>13.72708166368728</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>72.0930091265184</v>
+      </c>
+      <c r="J11">
+        <v>16.20755851633389</v>
+      </c>
+      <c r="L11">
+        <v>13.71927412990351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.697872985433515</v>
+        <v>4.681395695191169</v>
       </c>
       <c r="D12">
-        <v>10.68062080643635</v>
+        <v>10.65636006294228</v>
       </c>
       <c r="E12">
-        <v>15.6187609876539</v>
+        <v>15.61486674678204</v>
       </c>
       <c r="F12">
-        <v>99.61414161378426</v>
+        <v>99.48434237399259</v>
       </c>
       <c r="G12">
-        <v>79.07484017773351</v>
+        <v>79.15971047645793</v>
       </c>
       <c r="H12">
-        <v>73.82979260653015</v>
+        <v>78.67570417361406</v>
       </c>
       <c r="I12">
-        <v>16.59303722688341</v>
-      </c>
-      <c r="K12">
-        <v>14.04085307702551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>73.73236100205138</v>
+      </c>
+      <c r="J12">
+        <v>16.57921764479752</v>
+      </c>
+      <c r="L12">
+        <v>14.03215950328055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.67496208030033</v>
+        <v>4.658629982581862</v>
       </c>
       <c r="D13">
-        <v>10.62705680424157</v>
+        <v>10.60304870684343</v>
       </c>
       <c r="E13">
-        <v>15.54161477780511</v>
+        <v>15.53791980443998</v>
       </c>
       <c r="F13">
-        <v>99.12997771698828</v>
+        <v>99.00193177067817</v>
       </c>
       <c r="G13">
-        <v>78.68893092466585</v>
+        <v>78.77428670677487</v>
       </c>
       <c r="H13">
-        <v>73.46999606998553</v>
+        <v>78.29314131167126</v>
       </c>
       <c r="I13">
-        <v>16.51145021826578</v>
-      </c>
-      <c r="K13">
-        <v>13.97218993471401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>73.37387093421461</v>
+      </c>
+      <c r="J13">
+        <v>16.49789161418997</v>
+      </c>
+      <c r="L13">
+        <v>13.96370055732567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4.601899539479487</v>
+        <v>4.586017222394565</v>
       </c>
       <c r="D14">
-        <v>10.45584605869535</v>
+        <v>10.43261415112708</v>
       </c>
       <c r="E14">
-        <v>15.29463867288151</v>
+        <v>15.29153825560447</v>
       </c>
       <c r="F14">
-        <v>97.5794276278358</v>
+        <v>97.4567282849454</v>
       </c>
       <c r="G14">
-        <v>77.45309875595289</v>
+        <v>77.53979424620508</v>
       </c>
       <c r="H14">
-        <v>72.31770345123869</v>
+        <v>77.06794482012981</v>
       </c>
       <c r="I14">
-        <v>16.25035754618211</v>
-      </c>
-      <c r="K14">
-        <v>13.75243194539064</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>72.22556265196879</v>
+      </c>
+      <c r="J14">
+        <v>16.23758758629894</v>
+      </c>
+      <c r="L14">
+        <v>13.74455711413327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4.558294695445968</v>
+        <v>4.542671986075362</v>
       </c>
       <c r="D15">
-        <v>10.35338101336685</v>
+        <v>10.33059255849707</v>
       </c>
       <c r="E15">
-        <v>15.14655588559609</v>
+        <v>15.14378274540547</v>
       </c>
       <c r="F15">
-        <v>96.64936820250014</v>
+        <v>96.52969513187657</v>
       </c>
       <c r="G15">
-        <v>76.71184940114063</v>
+        <v>76.79920365955202</v>
       </c>
       <c r="H15">
-        <v>71.62650124331989</v>
+        <v>76.33303066167122</v>
       </c>
       <c r="I15">
-        <v>16.09388106566417</v>
-      </c>
-      <c r="K15">
-        <v>13.62071104122089</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>71.53661587518407</v>
+      </c>
+      <c r="J15">
+        <v>16.08155243079971</v>
+      </c>
+      <c r="L15">
+        <v>13.61317831802113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>4.322058721170158</v>
+        <v>4.307748802267404</v>
       </c>
       <c r="D16">
-        <v>9.794671360505303</v>
+        <v>9.774071956560848</v>
       </c>
       <c r="E16">
-        <v>14.33575727924318</v>
+        <v>14.33445660416917</v>
       </c>
       <c r="F16">
-        <v>91.55284372585092</v>
+        <v>91.44777479572828</v>
       </c>
       <c r="G16">
-        <v>72.65023517787949</v>
+        <v>72.7396144757992</v>
       </c>
       <c r="H16">
-        <v>67.83836483643155</v>
+        <v>72.30598192975484</v>
       </c>
       <c r="I16">
-        <v>15.23796889350662</v>
-      </c>
-      <c r="K16">
-        <v>12.90000525072409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>67.7593665430248</v>
+      </c>
+      <c r="J16">
+        <v>15.22771212790684</v>
+      </c>
+      <c r="L16">
+        <v>12.8940575891482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.186182561963371</v>
+        <v>4.172571032289706</v>
       </c>
       <c r="D17">
-        <v>9.470646140524948</v>
+        <v>9.451173647688291</v>
       </c>
       <c r="E17">
-        <v>13.86316064241539</v>
+        <v>13.86251797917105</v>
       </c>
       <c r="F17">
-        <v>88.57971841424124</v>
+        <v>88.48192738768107</v>
       </c>
       <c r="G17">
-        <v>70.28088127090943</v>
+        <v>70.37044833998938</v>
       </c>
       <c r="H17">
-        <v>65.62799229546353</v>
+        <v>69.957021344225</v>
       </c>
       <c r="I17">
-        <v>14.73965871448855</v>
-      </c>
-      <c r="K17">
-        <v>12.48026933645876</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>65.55442174084213</v>
+      </c>
+      <c r="J17">
+        <v>14.73039393287725</v>
+      </c>
+      <c r="L17">
+        <v>12.47506520191044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>4.110438693757744</v>
+        <v>4.097202568016582</v>
       </c>
       <c r="D18">
-        <v>9.289191636661265</v>
+        <v>9.270313858731702</v>
       </c>
       <c r="E18">
-        <v>13.59781638200937</v>
+        <v>13.59749178521569</v>
       </c>
       <c r="F18">
-        <v>86.90990597968752</v>
+        <v>86.81588360818026</v>
       </c>
       <c r="G18">
-        <v>68.95012227083201</v>
+        <v>69.03953984714855</v>
       </c>
       <c r="H18">
-        <v>64.3863574076139</v>
+        <v>68.63789634583728</v>
       </c>
       <c r="I18">
-        <v>14.46004072911508</v>
-      </c>
-      <c r="K18">
-        <v>12.24470130970216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>64.31559818149073</v>
+      </c>
+      <c r="J18">
+        <v>14.45127765983705</v>
+      </c>
+      <c r="L18">
+        <v>12.23986841856804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.085141124660101</v>
+        <v>4.072028437120291</v>
       </c>
       <c r="D19">
-        <v>9.228457169747429</v>
+        <v>9.209773251666073</v>
       </c>
       <c r="E19">
-        <v>13.5088982692511</v>
+        <v>13.50867288782033</v>
       </c>
       <c r="F19">
-        <v>86.35028490620157</v>
+        <v>86.25747979695801</v>
       </c>
       <c r="G19">
-        <v>68.50411895435697</v>
+        <v>68.59344985592509</v>
       </c>
       <c r="H19">
-        <v>63.97019759238211</v>
+        <v>68.19582942906857</v>
       </c>
       <c r="I19">
-        <v>14.36636376648003</v>
-      </c>
-      <c r="K19">
-        <v>12.1657757618629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>63.90034653404462</v>
+      </c>
+      <c r="J19">
+        <v>14.35776090515998</v>
+      </c>
+      <c r="L19">
+        <v>12.16106065119698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>4.200380880319708</v>
+        <v>4.186697946524172</v>
       </c>
       <c r="D20">
-        <v>9.504594513350348</v>
+        <v>9.485008026713059</v>
       </c>
       <c r="E20">
-        <v>13.91275044868816</v>
+        <v>13.91204448417538</v>
       </c>
       <c r="F20">
-        <v>88.89175193604849</v>
+        <v>88.79323272215674</v>
       </c>
       <c r="G20">
-        <v>70.52955177048989</v>
+        <v>70.61912763182818</v>
       </c>
       <c r="H20">
-        <v>65.85999548446971</v>
+        <v>70.2035343677847</v>
       </c>
       <c r="I20">
-        <v>14.79192864741017</v>
-      </c>
-      <c r="K20">
-        <v>12.52430173421019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>65.78588177987798</v>
+      </c>
+      <c r="J20">
+        <v>14.78256595470514</v>
+      </c>
+      <c r="L20">
+        <v>12.51902474923534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>4.623108941139814</v>
+        <v>4.607098039925748</v>
       </c>
       <c r="D21">
-        <v>10.50560870232774</v>
+        <v>10.48215590699271</v>
       </c>
       <c r="E21">
-        <v>15.3664825448272</v>
+        <v>15.36321569569513</v>
       </c>
       <c r="F21">
-        <v>98.03055649115137</v>
+        <v>97.9063419094259</v>
       </c>
       <c r="G21">
-        <v>77.81265327824717</v>
+        <v>77.89899130947597</v>
       </c>
       <c r="H21">
-        <v>72.65296584589616</v>
+        <v>77.4244159104617</v>
       </c>
       <c r="I21">
-        <v>16.32629242534793</v>
-      </c>
-      <c r="K21">
-        <v>13.81634894520639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>72.55969582748983</v>
+      </c>
+      <c r="J21">
+        <v>16.31330009480587</v>
+      </c>
+      <c r="L21">
+        <v>13.80830123291573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>4.948858054349976</v>
+        <v>4.930627850226357</v>
       </c>
       <c r="D22">
-        <v>11.26339727148917</v>
+        <v>11.23601201627327</v>
       </c>
       <c r="E22">
-        <v>16.4540855595224</v>
+        <v>16.44751872085201</v>
       </c>
       <c r="F22">
-        <v>104.8506073197785</v>
+        <v>104.6986649094795</v>
       </c>
       <c r="G22">
-        <v>83.24932985746072</v>
+        <v>83.32639935135553</v>
       </c>
       <c r="H22">
-        <v>77.72096914645917</v>
+        <v>82.81264578149165</v>
       </c>
       <c r="I22">
-        <v>17.4774998040102</v>
-      </c>
-      <c r="K22">
-        <v>14.78496176092008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>77.60704085982465</v>
+      </c>
+      <c r="J22">
+        <v>17.46029759618018</v>
+      </c>
+      <c r="L22">
+        <v>14.77359175703816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>4.7681466180115</v>
+        <v>4.751210291986802</v>
       </c>
       <c r="D23">
-        <v>10.84454009653152</v>
+        <v>10.81947411154821</v>
       </c>
       <c r="E23">
-        <v>15.85447555483392</v>
+        <v>15.84992828038636</v>
       </c>
       <c r="F23">
-        <v>101.0929295936452</v>
+        <v>100.9575020941944</v>
       </c>
       <c r="G23">
-        <v>80.25358602120325</v>
+        <v>80.33675455095749</v>
       </c>
       <c r="H23">
-        <v>74.9286989491159</v>
+        <v>79.84412956794047</v>
       </c>
       <c r="I23">
-        <v>16.84241713502206</v>
-      </c>
-      <c r="K23">
-        <v>14.25070668693652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>74.82707374103231</v>
+      </c>
+      <c r="J23">
+        <v>16.82775240621434</v>
+      </c>
+      <c r="L23">
+        <v>14.24134929116538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>4.193954635874953</v>
+        <v>4.180304062342891</v>
       </c>
       <c r="D24">
-        <v>9.489231848243458</v>
+        <v>9.469697058090583</v>
       </c>
       <c r="E24">
-        <v>13.89031169027778</v>
+        <v>13.88963452536975</v>
       </c>
       <c r="F24">
-        <v>88.75056227143573</v>
+        <v>88.65237352122529</v>
       </c>
       <c r="G24">
-        <v>70.41703291438671</v>
+        <v>70.50660557429003</v>
       </c>
       <c r="H24">
-        <v>65.75501880356521</v>
+        <v>70.09199114326641</v>
       </c>
       <c r="I24">
-        <v>14.76827666358318</v>
-      </c>
-      <c r="K24">
-        <v>12.50437733467474</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>65.68115158723602</v>
+      </c>
+      <c r="J24">
+        <v>14.75895844274617</v>
+      </c>
+      <c r="L24">
+        <v>12.49913345442323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>3.66840966193026</v>
+        <v>3.657224177266306</v>
       </c>
       <c r="D25">
-        <v>8.218603980153679</v>
+        <v>8.202839139058113</v>
       </c>
       <c r="E25">
-        <v>12.02353078600644</v>
+        <v>12.02452616168831</v>
       </c>
       <c r="F25">
-        <v>77.00186189109081</v>
+        <v>76.92667656736421</v>
       </c>
       <c r="G25">
-        <v>61.051813187647</v>
+        <v>61.13752913830393</v>
       </c>
       <c r="H25">
-        <v>57.01467361298315</v>
+        <v>60.81337526394612</v>
       </c>
       <c r="I25">
-        <v>12.80301513201128</v>
-      </c>
-      <c r="K25">
-        <v>10.84822260567611</v>
+        <v>56.95797624761711</v>
+      </c>
+      <c r="J25">
+        <v>12.79662021344133</v>
+      </c>
+      <c r="L25">
+        <v>10.84508305444094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,773 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>3.296965656499187</v>
+        <v>8.583619097843789</v>
       </c>
       <c r="D2">
-        <v>7.313626350408269</v>
+        <v>8.251966072104011</v>
       </c>
       <c r="E2">
-        <v>10.70485932701625</v>
+        <v>6.393957514750815</v>
       </c>
       <c r="F2">
-        <v>68.64238729649408</v>
+        <v>89.0366383097322</v>
       </c>
       <c r="G2">
-        <v>54.51230155960896</v>
+        <v>1.99910374069217</v>
       </c>
       <c r="H2">
-        <v>54.26574503343033</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>50.78620313858845</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.41022455258565</v>
+        <v>8.411386906487644</v>
+      </c>
+      <c r="K2">
+        <v>77.42636005426404</v>
       </c>
       <c r="L2">
-        <v>9.675948194330639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.420080289611531</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.45881296455644</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>3.056433197946789</v>
+        <v>8.257537202347695</v>
       </c>
       <c r="D3">
-        <v>6.711643771586011</v>
+        <v>7.527761655759868</v>
       </c>
       <c r="E3">
-        <v>9.91283983726124</v>
+        <v>6.450770059730073</v>
       </c>
       <c r="F3">
-        <v>63.02749422803273</v>
+        <v>83.05215090876116</v>
       </c>
       <c r="G3">
-        <v>50.01669668679662</v>
+        <v>2.056416842815824</v>
       </c>
       <c r="H3">
-        <v>49.83173336600904</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>46.5967184783937</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.46819162453721</v>
+        <v>8.320122316847209</v>
+      </c>
+      <c r="K3">
+        <v>71.46007525242443</v>
       </c>
       <c r="L3">
-        <v>8.88138945121538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>4.508097775597341</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>11.90153628475322</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>2.908260741273488</v>
+        <v>8.080749874638425</v>
       </c>
       <c r="D4">
-        <v>6.337100890494984</v>
+        <v>7.173210548644164</v>
       </c>
       <c r="E4">
-        <v>9.459054919205379</v>
+        <v>6.487951028590346</v>
       </c>
       <c r="F4">
-        <v>59.53735911763543</v>
+        <v>79.73930437217518</v>
       </c>
       <c r="G4">
-        <v>47.21926324788908</v>
+        <v>2.08924739252231</v>
       </c>
       <c r="H4">
-        <v>47.07731923633408</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>43.98907779483354</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9.880815291739808</v>
+        <v>8.287210792262085</v>
+      </c>
+      <c r="K4">
+        <v>67.97221948829547</v>
       </c>
       <c r="L4">
-        <v>8.463703339458309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>4.558946468320394</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.15823721126066</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>2.847515891874898</v>
+        <v>8.01333000403941</v>
       </c>
       <c r="D5">
-        <v>6.182654440170949</v>
+        <v>7.03747533851375</v>
       </c>
       <c r="E5">
-        <v>9.274809122815153</v>
+        <v>6.503739948158121</v>
       </c>
       <c r="F5">
-        <v>58.09987444631363</v>
+        <v>78.45880991990207</v>
       </c>
       <c r="G5">
-        <v>46.06624541033921</v>
+        <v>2.102250134295339</v>
       </c>
       <c r="H5">
-        <v>45.94326884935183</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>42.91411997525364</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>9.650339279257656</v>
+        <v>8.278418075741538</v>
+      </c>
+      <c r="K5">
+        <v>66.56984589436126</v>
       </c>
       <c r="L5">
-        <v>8.313369071845646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4.579180720836041</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.26054659207321</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>2.83740146871256</v>
+        <v>8.002386237231281</v>
       </c>
       <c r="D6">
-        <v>6.156884536809923</v>
+        <v>7.015408159665521</v>
       </c>
       <c r="E6">
-        <v>9.24424388398962</v>
+        <v>6.506401452796734</v>
       </c>
       <c r="F6">
-        <v>57.860152332934</v>
+        <v>78.24991950367294</v>
       </c>
       <c r="G6">
-        <v>45.87390962844287</v>
+        <v>2.104391311118821</v>
       </c>
       <c r="H6">
-        <v>45.75417352658864</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>42.73479552773432</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9.619496146986538</v>
+        <v>8.277210057059973</v>
+      </c>
+      <c r="K6">
+        <v>66.33783812330249</v>
       </c>
       <c r="L6">
-        <v>8.288476691138658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4.58251818970417</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.27742920011962</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>2.907443257978588</v>
+        <v>8.079823223408697</v>
       </c>
       <c r="D7">
-        <v>6.335025997442978</v>
+        <v>7.171347231221398</v>
       </c>
       <c r="E7">
-        <v>9.456567956382644</v>
+        <v>6.48816132275955</v>
       </c>
       <c r="F7">
-        <v>59.5180394329388</v>
+        <v>79.7217755628935</v>
       </c>
       <c r="G7">
-        <v>47.20377025009987</v>
+        <v>2.089424049239705</v>
       </c>
       <c r="H7">
-        <v>47.06207603836885</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>43.97463434751459</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9.877558784019001</v>
+        <v>8.287074771800919</v>
+      </c>
+      <c r="K7">
+        <v>67.95324356374425</v>
       </c>
       <c r="L7">
-        <v>8.461670944922377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4.559220997565263</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.15962474388346</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>3.213962132657104</v>
+        <v>8.465362763952809</v>
       </c>
       <c r="D8">
-        <v>7.106688077985305</v>
+        <v>7.942954475136449</v>
       </c>
       <c r="E8">
-        <v>10.40085461193138</v>
+        <v>6.413115615187273</v>
       </c>
       <c r="F8">
-        <v>66.71205490309772</v>
+        <v>86.88174228795287</v>
       </c>
       <c r="G8">
-        <v>52.9673488022007</v>
+        <v>2.019519612175687</v>
       </c>
       <c r="H8">
-        <v>52.74102231789701</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>49.34659976325489</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>11.08668402290131</v>
+        <v>8.374228963142654</v>
+      </c>
+      <c r="K8">
+        <v>75.28321756264646</v>
       </c>
       <c r="L8">
-        <v>9.403067521020844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.451330106845596</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.61574925144136</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>3.827328313529881</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D9">
-        <v>8.617907128188474</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E9">
-        <v>12.637785319732</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F9">
-        <v>80.78167914904132</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G9">
-        <v>64.21846644631951</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H9">
-        <v>63.86243073197834</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>59.82712624896544</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>13.44138228464957</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K9">
+        <v>93.04568974513296</v>
       </c>
       <c r="L9">
-        <v>11.38867153168521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>4.323553540631976</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D10">
-        <v>9.811698930043606</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E10">
-        <v>14.38934364495119</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F10">
-        <v>91.79260897235913</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G10">
-        <v>73.01507120868006</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H10">
-        <v>72.57915025140058</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>68.01570408827018</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>15.28557664687626</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K10">
+        <v>93.04568974513296</v>
       </c>
       <c r="L10">
-        <v>12.94280229204853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>4.577664992107444</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D11">
-        <v>10.41297186567648</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E11">
-        <v>15.26310636411331</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F11">
-        <v>97.27836452792438</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G11">
-        <v>77.39730076995919</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H11">
-        <v>76.92653762159981</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>72.0930091265184</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>16.20755851633389</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K11">
+        <v>93.04568974513296</v>
       </c>
       <c r="L11">
-        <v>13.71927412990351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>4.681395695191169</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D12">
-        <v>10.65636006294228</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E12">
-        <v>15.61486674678204</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F12">
-        <v>99.48434237399259</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G12">
-        <v>79.15971047645793</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H12">
-        <v>78.67570417361406</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>73.73236100205138</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>16.57921764479752</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K12">
+        <v>93.04568974513296</v>
       </c>
       <c r="L12">
-        <v>14.03215950328055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>4.658629982581862</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D13">
-        <v>10.60304870684343</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E13">
-        <v>15.53791980443998</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F13">
-        <v>99.00193177067817</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G13">
-        <v>78.77428670677487</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H13">
-        <v>78.29314131167126</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>73.37387093421461</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>16.49789161418997</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K13">
+        <v>93.04568974513296</v>
       </c>
       <c r="L13">
-        <v>13.96370055732567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>4.586017222394565</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D14">
-        <v>10.43261415112708</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E14">
-        <v>15.29153825560447</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F14">
-        <v>97.4567282849454</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G14">
-        <v>77.53979424620508</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H14">
-        <v>77.06794482012981</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>72.22556265196879</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>16.23758758629894</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K14">
+        <v>93.04568974513296</v>
       </c>
       <c r="L14">
-        <v>13.74455711413327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>4.542671986075362</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D15">
-        <v>10.33059255849707</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E15">
-        <v>15.14378274540547</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F15">
-        <v>96.52969513187657</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G15">
-        <v>76.79920365955202</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H15">
-        <v>76.33303066167122</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>71.53661587518407</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>16.08155243079971</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K15">
+        <v>93.04568974513296</v>
       </c>
       <c r="L15">
-        <v>13.61317831802113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>4.307748802267404</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D16">
-        <v>9.774071956560848</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E16">
-        <v>14.33445660416917</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F16">
-        <v>91.44777479572828</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G16">
-        <v>72.7396144757992</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H16">
-        <v>72.30598192975484</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>67.7593665430248</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>15.22771212790684</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K16">
+        <v>93.04568974513296</v>
       </c>
       <c r="L16">
-        <v>12.8940575891482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>4.172571032289706</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D17">
-        <v>9.451173647688291</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E17">
-        <v>13.86251797917105</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F17">
-        <v>88.48192738768107</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G17">
-        <v>70.37044833998938</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H17">
-        <v>69.957021344225</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>65.55442174084213</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>14.73039393287725</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K17">
+        <v>93.04568974513296</v>
       </c>
       <c r="L17">
-        <v>12.47506520191044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>4.097202568016582</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D18">
-        <v>9.270313858731702</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E18">
-        <v>13.59749178521569</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F18">
-        <v>86.81588360818026</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G18">
-        <v>69.03953984714855</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H18">
-        <v>68.63789634583728</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>64.31559818149073</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>14.45127765983705</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K18">
+        <v>93.04568974513296</v>
       </c>
       <c r="L18">
-        <v>12.23986841856804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>4.072028437120291</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D19">
-        <v>9.209773251666073</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E19">
-        <v>13.50867288782033</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F19">
-        <v>86.25747979695801</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G19">
-        <v>68.59344985592509</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H19">
-        <v>68.19582942906857</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>63.90034653404462</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>14.35776090515998</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K19">
+        <v>93.04568974513296</v>
       </c>
       <c r="L19">
-        <v>12.16106065119698</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>4.186697946524172</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D20">
-        <v>9.485008026713059</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E20">
-        <v>13.91204448417538</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F20">
-        <v>88.79323272215674</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G20">
-        <v>70.61912763182818</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H20">
-        <v>70.2035343677847</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>65.78588177987798</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>14.78256595470514</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K20">
+        <v>93.04568974513296</v>
       </c>
       <c r="L20">
-        <v>12.51902474923534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>4.607098039925748</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D21">
-        <v>10.48215590699271</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E21">
-        <v>15.36321569569513</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F21">
-        <v>97.9063419094259</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G21">
-        <v>77.89899130947597</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H21">
-        <v>77.4244159104617</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>72.55969582748983</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>16.31330009480587</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K21">
+        <v>93.04568974513296</v>
       </c>
       <c r="L21">
-        <v>13.80830123291573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>4.930627850226357</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D22">
-        <v>11.23601201627327</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E22">
-        <v>16.44751872085201</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F22">
-        <v>104.6986649094795</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G22">
-        <v>83.32639935135553</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H22">
-        <v>82.81264578149165</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>77.60704085982465</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>17.46029759618018</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K22">
+        <v>93.04568974513296</v>
       </c>
       <c r="L22">
-        <v>14.77359175703816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>4.751210291986802</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D23">
-        <v>10.81947411154821</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E23">
-        <v>15.84992828038636</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F23">
-        <v>100.9575020941944</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G23">
-        <v>80.33675455095749</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H23">
-        <v>79.84412956794047</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>74.82707374103231</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>16.82775240621434</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K23">
+        <v>93.04568974513296</v>
       </c>
       <c r="L23">
-        <v>14.24134929116538</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>4.180304062342891</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D24">
-        <v>9.469697058090583</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E24">
-        <v>13.88963452536975</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F24">
-        <v>88.65237352122529</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G24">
-        <v>70.50660557429003</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H24">
-        <v>70.09199114326641</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>65.68115158723602</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>14.75895844274617</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K24">
+        <v>93.04568974513296</v>
       </c>
       <c r="L24">
-        <v>12.49913345442323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>3.657224177266306</v>
+        <v>9.528791728769283</v>
       </c>
       <c r="D25">
-        <v>8.202839139058113</v>
+        <v>10.54370147613483</v>
       </c>
       <c r="E25">
-        <v>12.02452616168831</v>
+        <v>6.278075167964944</v>
       </c>
       <c r="F25">
-        <v>76.92667656736421</v>
+        <v>106.3717592840556</v>
       </c>
       <c r="G25">
-        <v>61.13752913830393</v>
+        <v>1.842936526503268</v>
       </c>
       <c r="H25">
-        <v>60.81337526394612</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>56.95797624761711</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12.79662021344133</v>
+        <v>8.837350165241975</v>
+      </c>
+      <c r="K25">
+        <v>93.04568974513296</v>
       </c>
       <c r="L25">
-        <v>10.84508305444094</v>
+        <v>4.184595828736755</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>10.28311196004611</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.583619097843789</v>
+        <v>7.43496678578824</v>
       </c>
       <c r="D2">
-        <v>8.251966072104011</v>
+        <v>6.978719476478035</v>
       </c>
       <c r="E2">
-        <v>6.393957514750815</v>
+        <v>20.8569304280254</v>
       </c>
       <c r="F2">
-        <v>89.0366383097322</v>
+        <v>11.09384123985554</v>
       </c>
       <c r="G2">
-        <v>1.99910374069217</v>
+        <v>21.7917015172115</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.63732192950971</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.411386906487644</v>
+        <v>14.00397895443126</v>
       </c>
       <c r="K2">
-        <v>77.42636005426404</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4.420080289611531</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>100.1135638901703</v>
       </c>
       <c r="N2">
-        <v>11.45881296455644</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.56653903326531</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.257537202347695</v>
+        <v>6.894880055653138</v>
       </c>
       <c r="D3">
-        <v>7.527761655759868</v>
+        <v>6.379947866629817</v>
       </c>
       <c r="E3">
-        <v>6.450770059730073</v>
+        <v>19.05619826416257</v>
       </c>
       <c r="F3">
-        <v>83.05215090876116</v>
+        <v>9.309786007657509</v>
       </c>
       <c r="G3">
-        <v>2.056416842815824</v>
+        <v>19.35637205806042</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.661904232008337</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.320122316847209</v>
+        <v>12.83846152199641</v>
       </c>
       <c r="K3">
-        <v>71.46007525242443</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>4.508097775597341</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>92.54980035722326</v>
       </c>
       <c r="N3">
-        <v>11.90153628475322</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.2354647042313</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.080749874638425</v>
+        <v>6.548515808966182</v>
       </c>
       <c r="D4">
-        <v>7.173210548644164</v>
+        <v>6.021797706471522</v>
       </c>
       <c r="E4">
-        <v>6.487951028590346</v>
+        <v>17.95172555390551</v>
       </c>
       <c r="F4">
-        <v>79.73930437217518</v>
+        <v>8.371028726315474</v>
       </c>
       <c r="G4">
-        <v>2.08924739252231</v>
+        <v>17.95269120830074</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.721362767815707</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.287210792262085</v>
+        <v>12.11718898070179</v>
       </c>
       <c r="K4">
-        <v>67.97221948829547</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.558946468320394</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>87.7852166852865</v>
       </c>
       <c r="N4">
-        <v>12.15823721126066</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.50814897087896</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.01333000403941</v>
+        <v>6.40349905042569</v>
       </c>
       <c r="D5">
-        <v>7.03747533851375</v>
+        <v>5.892771730663187</v>
       </c>
       <c r="E5">
-        <v>6.503739948158121</v>
+        <v>17.49967990848242</v>
       </c>
       <c r="F5">
-        <v>78.45880991990207</v>
+        <v>8.313632445446546</v>
       </c>
       <c r="G5">
-        <v>2.102250134295339</v>
+        <v>17.40247172314775</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.754909802570747</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.278418075741538</v>
+        <v>11.82044647591026</v>
       </c>
       <c r="K5">
-        <v>66.56984589436126</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4.579180720836041</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>85.80705751551557</v>
       </c>
       <c r="N5">
-        <v>12.26054659207321</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.429156875282787</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.002386237231281</v>
+        <v>6.379181162556451</v>
       </c>
       <c r="D6">
-        <v>7.015408159665521</v>
+        <v>5.884121046805267</v>
       </c>
       <c r="E6">
-        <v>6.506401452796734</v>
+        <v>17.42444420870812</v>
       </c>
       <c r="F6">
-        <v>78.24991950367294</v>
+        <v>8.311574938391985</v>
       </c>
       <c r="G6">
-        <v>2.104391311118821</v>
+        <v>17.31240733818388</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.760993922449032</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.277210057059973</v>
+        <v>11.77096756974839</v>
       </c>
       <c r="K6">
-        <v>66.33783812330249</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4.58251818970417</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>85.47622137828475</v>
       </c>
       <c r="N6">
-        <v>12.27742920011962</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.4173842527661</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.079823223408697</v>
+        <v>6.546575926976696</v>
       </c>
       <c r="D7">
-        <v>7.171347231221398</v>
+        <v>6.01984501295161</v>
       </c>
       <c r="E7">
-        <v>6.48816132275955</v>
+        <v>17.9456396257032</v>
       </c>
       <c r="F7">
-        <v>79.7217755628935</v>
+        <v>8.366264150821557</v>
       </c>
       <c r="G7">
-        <v>2.089424049239705</v>
+        <v>17.94518341410957</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5.721779721837382</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.287074771800919</v>
+        <v>12.11320002999857</v>
       </c>
       <c r="K7">
-        <v>67.95324356374425</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>4.559220997565263</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>87.75869378595196</v>
       </c>
       <c r="N7">
-        <v>12.15962474388346</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.50699198872956</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.465362763952809</v>
+        <v>7.251698405132026</v>
       </c>
       <c r="D8">
-        <v>7.942954475136449</v>
+        <v>6.769702566959619</v>
       </c>
       <c r="E8">
-        <v>6.413115615187273</v>
+        <v>20.23422303317574</v>
       </c>
       <c r="F8">
-        <v>86.88174228795287</v>
+        <v>10.44742274949652</v>
       </c>
       <c r="G8">
-        <v>2.019519612175687</v>
+        <v>20.93186966406574</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.635406742111551</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.374228963142654</v>
+        <v>13.60231902521385</v>
       </c>
       <c r="K8">
-        <v>75.28321756264646</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>4.451330106845596</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>97.52627156676439</v>
       </c>
       <c r="N8">
-        <v>11.61574925144136</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.09967995183302</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.528791728769283</v>
+        <v>8.527010271513511</v>
       </c>
       <c r="D9">
-        <v>10.54370147613483</v>
+        <v>8.373411141687171</v>
       </c>
       <c r="E9">
-        <v>6.278075167964944</v>
+        <v>24.88133187810756</v>
       </c>
       <c r="F9">
-        <v>106.3717592840556</v>
+        <v>15.75820665239049</v>
       </c>
       <c r="G9">
-        <v>1.842936526503268</v>
+        <v>27.65144379612993</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.666697148371976</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.837350165241975</v>
+        <v>16.56820836213779</v>
       </c>
       <c r="K9">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>116.1286372600099</v>
       </c>
       <c r="N9">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.69211390357954</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.528791728769283</v>
+        <v>9.418705634306709</v>
       </c>
       <c r="D10">
-        <v>10.54370147613483</v>
+        <v>9.77608309941229</v>
       </c>
       <c r="E10">
-        <v>6.278075167964944</v>
+        <v>28.75083403605814</v>
       </c>
       <c r="F10">
-        <v>106.3717592840556</v>
+        <v>20.66561853411443</v>
       </c>
       <c r="G10">
-        <v>1.842936526503268</v>
+        <v>33.52008224724498</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.088784058092189</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.837350165241975</v>
+        <v>18.98820590338708</v>
       </c>
       <c r="K10">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>130.4045154858063</v>
       </c>
       <c r="N10">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.76794092111592</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.528791728769283</v>
+        <v>9.823464090873363</v>
       </c>
       <c r="D11">
-        <v>10.54370147613483</v>
+        <v>10.5369601626373</v>
       </c>
       <c r="E11">
-        <v>6.278075167964944</v>
+        <v>30.79166243713137</v>
       </c>
       <c r="F11">
-        <v>106.3717592840556</v>
+        <v>23.3170841925663</v>
       </c>
       <c r="G11">
-        <v>1.842936526503268</v>
+        <v>36.61798077184966</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.846317539940971</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.837350165241975</v>
+        <v>20.24858060108606</v>
       </c>
       <c r="K11">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>137.5044660119258</v>
       </c>
       <c r="N11">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>19.37982426315075</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.528791728769283</v>
+        <v>9.978229929362428</v>
       </c>
       <c r="D12">
-        <v>10.54370147613483</v>
+        <v>10.85755580223021</v>
       </c>
       <c r="E12">
-        <v>6.278075167964944</v>
+        <v>31.64096200961909</v>
       </c>
       <c r="F12">
-        <v>106.3717592840556</v>
+        <v>24.42402898783041</v>
       </c>
       <c r="G12">
-        <v>1.842936526503268</v>
+        <v>37.89811205141022</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.1603067842108</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.837350165241975</v>
+        <v>20.77006019233887</v>
       </c>
       <c r="K12">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>140.3740198996522</v>
       </c>
       <c r="N12">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>20.04424903414227</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.528791728769283</v>
+        <v>9.944787801760189</v>
       </c>
       <c r="D13">
-        <v>10.54370147613483</v>
+        <v>10.78664368326797</v>
       </c>
       <c r="E13">
-        <v>6.278075167964944</v>
+        <v>31.45361975709529</v>
       </c>
       <c r="F13">
-        <v>106.3717592840556</v>
+        <v>24.17983079147932</v>
       </c>
       <c r="G13">
-        <v>1.842936526503268</v>
+        <v>37.61636329972009</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.091157716646135</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.837350165241975</v>
+        <v>20.65517904109037</v>
       </c>
       <c r="K13">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>139.7452906167182</v>
       </c>
       <c r="N13">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>19.89808582498399</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.528791728769283</v>
+        <v>9.836151816633016</v>
       </c>
       <c r="D14">
-        <v>10.54370147613483</v>
+        <v>10.56254188753607</v>
       </c>
       <c r="E14">
-        <v>6.278075167964944</v>
+        <v>30.85965303382133</v>
       </c>
       <c r="F14">
-        <v>106.3717592840556</v>
+        <v>23.40567672960031</v>
       </c>
       <c r="G14">
-        <v>1.842936526503268</v>
+        <v>36.72071531406822</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.871497576455047</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.837350165241975</v>
+        <v>20.29039184593982</v>
       </c>
       <c r="K14">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>137.7360131994669</v>
       </c>
       <c r="N14">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>19.43317845306037</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.528791728769283</v>
+        <v>9.76987753290368</v>
       </c>
       <c r="D15">
-        <v>10.54370147613483</v>
+        <v>10.43020301883442</v>
       </c>
       <c r="E15">
-        <v>6.278075167964944</v>
+        <v>30.50750193132137</v>
       </c>
       <c r="F15">
-        <v>106.3717592840556</v>
+        <v>22.94691536566391</v>
       </c>
       <c r="G15">
-        <v>1.842936526503268</v>
+        <v>36.18818930930441</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.741013570150503</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.837350165241975</v>
+        <v>20.07371195284225</v>
       </c>
       <c r="K15">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>136.5332795917</v>
       </c>
       <c r="N15">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>19.1565523730439</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.528791728769283</v>
+        <v>9.392344797993204</v>
       </c>
       <c r="D16">
-        <v>10.54370147613483</v>
+        <v>9.729797361704245</v>
       </c>
       <c r="E16">
-        <v>6.278075167964944</v>
+        <v>28.62547177079232</v>
       </c>
       <c r="F16">
-        <v>106.3717592840556</v>
+        <v>20.50354418365253</v>
       </c>
       <c r="G16">
-        <v>1.842936526503268</v>
+        <v>33.32922155633481</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.042236912914595</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.837350165241975</v>
+        <v>18.91043926352228</v>
       </c>
       <c r="K16">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>129.9588501982388</v>
       </c>
       <c r="N16">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.66841965454774</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.528791728769283</v>
+        <v>9.161303694639233</v>
       </c>
       <c r="D17">
-        <v>10.54370147613483</v>
+        <v>9.338469482579999</v>
       </c>
       <c r="E17">
-        <v>6.278075167964944</v>
+        <v>27.55962368487667</v>
       </c>
       <c r="F17">
-        <v>106.3717592840556</v>
+        <v>19.13158915700763</v>
       </c>
       <c r="G17">
-        <v>1.842936526503268</v>
+        <v>31.70623196579317</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.647110404299998</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.837350165241975</v>
+        <v>18.24758740113862</v>
       </c>
       <c r="K17">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>126.124606230781</v>
       </c>
       <c r="N17">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>16.82095580154867</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.528791728769283</v>
+        <v>9.028197688653876</v>
       </c>
       <c r="D18">
-        <v>10.54370147613483</v>
+        <v>9.123693009381476</v>
       </c>
       <c r="E18">
-        <v>6.278075167964944</v>
+        <v>26.96993131994531</v>
       </c>
       <c r="F18">
-        <v>106.3717592840556</v>
+        <v>18.37826872864573</v>
       </c>
       <c r="G18">
-        <v>1.842936526503268</v>
+        <v>30.80918338570488</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.429301828964355</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.837350165241975</v>
+        <v>17.87954985197998</v>
       </c>
       <c r="K18">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>123.9683461682127</v>
       </c>
       <c r="N18">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>16.35155011900407</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.528791728769283</v>
+        <v>8.983062398369819</v>
       </c>
       <c r="D19">
-        <v>10.54370147613483</v>
+        <v>9.052479485434315</v>
       </c>
       <c r="E19">
-        <v>6.278075167964944</v>
+        <v>26.77363796762378</v>
       </c>
       <c r="F19">
-        <v>106.3717592840556</v>
+        <v>18.12860622058273</v>
       </c>
       <c r="G19">
-        <v>1.842936526503268</v>
+        <v>30.51090693440075</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.356980540320168</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.837350165241975</v>
+        <v>17.75682890169129</v>
       </c>
       <c r="K19">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>123.2450294053973</v>
       </c>
       <c r="N19">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16.19529371395533</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.528791728769283</v>
+        <v>9.185913164509069</v>
       </c>
       <c r="D20">
-        <v>10.54370147613483</v>
+        <v>9.378993170254992</v>
       </c>
       <c r="E20">
-        <v>6.278075167964944</v>
+        <v>27.67050335864524</v>
       </c>
       <c r="F20">
-        <v>106.3717592840556</v>
+        <v>19.27374013562749</v>
       </c>
       <c r="G20">
-        <v>1.842936526503268</v>
+        <v>31.87502212284014</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.688142512632695</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.837350165241975</v>
+        <v>18.31668430696337</v>
       </c>
       <c r="K20">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>126.5272593659209</v>
       </c>
       <c r="N20">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.90919608689118</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.528791728769283</v>
+        <v>9.867999402710094</v>
       </c>
       <c r="D21">
-        <v>10.54370147613483</v>
+        <v>10.62728563298752</v>
       </c>
       <c r="E21">
-        <v>6.278075167964944</v>
+        <v>31.03155416052778</v>
       </c>
       <c r="F21">
-        <v>106.3717592840556</v>
+        <v>23.62969548405172</v>
       </c>
       <c r="G21">
-        <v>1.842936526503268</v>
+        <v>36.98027516174625</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.93513005061112</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.837350165241975</v>
+        <v>20.39605335673454</v>
       </c>
       <c r="K21">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>138.3200147484631</v>
       </c>
       <c r="N21">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>19.56795274964634</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.528791728769283</v>
+        <v>10.32501498290488</v>
       </c>
       <c r="D22">
-        <v>10.54370147613483</v>
+        <v>11.65750750291762</v>
       </c>
       <c r="E22">
-        <v>6.278075167964944</v>
+        <v>33.73525437981994</v>
       </c>
       <c r="F22">
-        <v>106.3717592840556</v>
+        <v>27.14905790011143</v>
       </c>
       <c r="G22">
-        <v>1.842936526503268</v>
+        <v>41.01705293427941</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.927173586801139</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.837350165241975</v>
+        <v>22.04872717243905</v>
       </c>
       <c r="K22">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>147.2411515013097</v>
       </c>
       <c r="N22">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>21.65986418888263</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.528791728769283</v>
+        <v>10.07894231382803</v>
       </c>
       <c r="D23">
-        <v>10.54370147613483</v>
+        <v>11.07708588538209</v>
       </c>
       <c r="E23">
-        <v>6.278075167964944</v>
+        <v>32.21913905641128</v>
       </c>
       <c r="F23">
-        <v>106.3717592840556</v>
+        <v>25.1774914569343</v>
       </c>
       <c r="G23">
-        <v>1.842936526503268</v>
+        <v>38.76510458901706</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.373230499622876</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.837350165241975</v>
+        <v>21.12408232502873</v>
       </c>
       <c r="K23">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>142.2993440174275</v>
       </c>
       <c r="N23">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>20.4937795499113</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.528791728769283</v>
+        <v>9.174788182896085</v>
       </c>
       <c r="D24">
-        <v>10.54370147613483</v>
+        <v>9.36064147922983</v>
       </c>
       <c r="E24">
-        <v>6.278075167964944</v>
+        <v>27.62030484779303</v>
       </c>
       <c r="F24">
-        <v>106.3717592840556</v>
+        <v>19.20936574235304</v>
       </c>
       <c r="G24">
-        <v>1.842936526503268</v>
+        <v>31.79860248124911</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.66956340182824</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.837350165241975</v>
+        <v>18.28540618393549</v>
       </c>
       <c r="K24">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>126.3450754515308</v>
       </c>
       <c r="N24">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.86924852271252</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.528791728769283</v>
+        <v>8.191893754625008</v>
       </c>
       <c r="D25">
-        <v>10.54370147613483</v>
+        <v>7.914853717767182</v>
       </c>
       <c r="E25">
-        <v>6.278075167964944</v>
+        <v>23.58057479228216</v>
       </c>
       <c r="F25">
-        <v>106.3717592840556</v>
+        <v>14.18012577792078</v>
       </c>
       <c r="G25">
-        <v>1.842936526503268</v>
+        <v>25.71382196770844</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.202818926310592</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.837350165241975</v>
+        <v>15.7450608253663</v>
       </c>
       <c r="K25">
-        <v>93.04568974513296</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>4.184595828736755</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>111.0845500817197</v>
       </c>
       <c r="N25">
-        <v>10.28311196004611</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.66686956802793</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.43496678578824</v>
+        <v>4.920821042693349</v>
       </c>
       <c r="D2">
-        <v>6.978719476478035</v>
+        <v>9.049374931987233</v>
       </c>
       <c r="E2">
-        <v>20.8569304280254</v>
+        <v>14.87132837618671</v>
       </c>
       <c r="F2">
-        <v>11.09384123985554</v>
+        <v>23.57344825814363</v>
       </c>
       <c r="G2">
-        <v>21.7917015172115</v>
+        <v>22.86492872204558</v>
       </c>
       <c r="H2">
-        <v>5.63732192950971</v>
+        <v>12.71982417213049</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14.00397895443126</v>
+        <v>10.12527413481625</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>100.1135638901703</v>
+        <v>59.02342950016224</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.56653903326531</v>
+        <v>18.58332014747845</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.894880055653138</v>
+        <v>4.749564180890503</v>
       </c>
       <c r="D3">
-        <v>6.379947866629817</v>
+        <v>9.088453672064107</v>
       </c>
       <c r="E3">
-        <v>19.05619826416257</v>
+        <v>14.59835990872851</v>
       </c>
       <c r="F3">
-        <v>9.309786007657509</v>
+        <v>24.06004497121543</v>
       </c>
       <c r="G3">
-        <v>19.35637205806042</v>
+        <v>23.17267786785296</v>
       </c>
       <c r="H3">
-        <v>5.661904232008337</v>
+        <v>12.85522549006706</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.83846152199641</v>
+        <v>10.01032181506775</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>92.54980035722326</v>
+        <v>55.55207178020056</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.2354647042313</v>
+        <v>18.82296337929108</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.548515808966182</v>
+        <v>4.642847137742884</v>
       </c>
       <c r="D4">
-        <v>6.021797706471522</v>
+        <v>9.115954648386445</v>
       </c>
       <c r="E4">
-        <v>17.95172555390551</v>
+        <v>14.4352822732601</v>
       </c>
       <c r="F4">
-        <v>8.371028726315474</v>
+        <v>24.37335300164089</v>
       </c>
       <c r="G4">
-        <v>17.95269120830074</v>
+        <v>23.38559645693615</v>
       </c>
       <c r="H4">
-        <v>5.721362767815707</v>
+        <v>12.94303752811742</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.11718898070179</v>
+        <v>9.943375437464914</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>87.7852166852865</v>
+        <v>53.29776787465694</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.50814897087896</v>
+        <v>18.98039990439404</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.40349905042569</v>
+        <v>4.599042422035566</v>
       </c>
       <c r="D5">
-        <v>5.892771730663187</v>
+        <v>9.128032462041402</v>
       </c>
       <c r="E5">
-        <v>17.49967990848242</v>
+        <v>14.3700502232123</v>
       </c>
       <c r="F5">
-        <v>8.313632445446546</v>
+        <v>24.50464912464627</v>
       </c>
       <c r="G5">
-        <v>17.40247172314775</v>
+        <v>23.4781854778397</v>
       </c>
       <c r="H5">
-        <v>5.754909802570747</v>
+        <v>12.97998898397182</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.82044647591026</v>
+        <v>9.917030498814444</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85.80705751551557</v>
+        <v>52.34840256380174</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.429156875282787</v>
+        <v>19.0471028815053</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.379181162556451</v>
+        <v>4.591751920823855</v>
       </c>
       <c r="D6">
-        <v>5.884121046805267</v>
+        <v>9.130090266308651</v>
       </c>
       <c r="E6">
-        <v>17.42444420870812</v>
+        <v>14.35929484925585</v>
       </c>
       <c r="F6">
-        <v>8.311574938391985</v>
+        <v>24.52666847233554</v>
       </c>
       <c r="G6">
-        <v>17.31240733818388</v>
+        <v>23.49390570592758</v>
       </c>
       <c r="H6">
-        <v>5.760993922449032</v>
+        <v>12.98619501584465</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.77096756974839</v>
+        <v>9.91271310744359</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85.47622137828475</v>
+        <v>52.18891252212197</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.4173842527661</v>
+        <v>19.05833145014889</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.546575926976696</v>
+        <v>4.642257548175663</v>
       </c>
       <c r="D7">
-        <v>6.01984501295161</v>
+        <v>9.116114021626833</v>
       </c>
       <c r="E7">
-        <v>17.9456396257032</v>
+        <v>14.43439746566026</v>
       </c>
       <c r="F7">
-        <v>8.366264150821557</v>
+        <v>24.3751090906499</v>
       </c>
       <c r="G7">
-        <v>17.94518341410957</v>
+        <v>23.38682183068499</v>
       </c>
       <c r="H7">
-        <v>5.721779721837382</v>
+        <v>12.94353115243495</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.11320002999857</v>
+        <v>9.943016321331221</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>87.75869378595196</v>
+        <v>53.28508849058028</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.50699198872956</v>
+        <v>18.98128922860215</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.251698405132026</v>
+        <v>4.862140570404265</v>
       </c>
       <c r="D8">
-        <v>6.769702566959619</v>
+        <v>9.062114939295229</v>
       </c>
       <c r="E8">
-        <v>20.23422303317574</v>
+        <v>14.77632089438222</v>
       </c>
       <c r="F8">
-        <v>10.44742274949652</v>
+        <v>23.73818810412237</v>
       </c>
       <c r="G8">
-        <v>20.93186966406574</v>
+        <v>22.96594497557528</v>
       </c>
       <c r="H8">
-        <v>5.635406742111551</v>
+        <v>12.76553515916864</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.60231902521385</v>
+        <v>10.08489798456134</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>97.52627156676439</v>
+        <v>57.85209563267954</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.09967995183302</v>
+        <v>18.66378642252099</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.527010271513511</v>
+        <v>5.277861113304152</v>
       </c>
       <c r="D9">
-        <v>8.373411141687171</v>
+        <v>8.984543361719473</v>
       </c>
       <c r="E9">
-        <v>24.88133187810756</v>
+        <v>15.47898182267786</v>
       </c>
       <c r="F9">
-        <v>15.75820665239049</v>
+        <v>22.60624768092319</v>
       </c>
       <c r="G9">
-        <v>27.65144379612993</v>
+        <v>22.33996019051571</v>
       </c>
       <c r="H9">
-        <v>6.666697148371976</v>
+        <v>12.45396642972739</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16.56820836213779</v>
+        <v>10.39092549020215</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>116.1286372600099</v>
+        <v>65.82832083816206</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.69211390357954</v>
+        <v>18.12484182855108</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.418705634306709</v>
+        <v>5.570222006645617</v>
       </c>
       <c r="D10">
-        <v>9.77608309941229</v>
+        <v>8.945521894065966</v>
       </c>
       <c r="E10">
-        <v>28.75083403605814</v>
+        <v>16.00986028328156</v>
       </c>
       <c r="F10">
-        <v>20.66561853411443</v>
+        <v>21.84866941483864</v>
       </c>
       <c r="G10">
-        <v>33.52008224724498</v>
+        <v>22.01447449111392</v>
       </c>
       <c r="H10">
-        <v>8.088784058092189</v>
+        <v>12.24846622997864</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.98820590338708</v>
+        <v>10.63124776017389</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>130.4045154858063</v>
+        <v>71.08854949472322</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.76794092111592</v>
+        <v>17.78278856228542</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.823464090873363</v>
+        <v>5.6997439850251</v>
       </c>
       <c r="D11">
-        <v>10.5369601626373</v>
+        <v>8.931829739655749</v>
       </c>
       <c r="E11">
-        <v>30.79166243713137</v>
+        <v>16.25354037498679</v>
       </c>
       <c r="F11">
-        <v>23.3170841925663</v>
+        <v>21.52081394496465</v>
       </c>
       <c r="G11">
-        <v>36.61798077184966</v>
+        <v>21.89839834097976</v>
       </c>
       <c r="H11">
-        <v>8.846317539940971</v>
+        <v>12.16019514680652</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.24858060108606</v>
+        <v>10.74361500737776</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>137.5044660119258</v>
+        <v>73.3515149663338</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.37982426315075</v>
+        <v>17.63956432107203</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.978229929362428</v>
+        <v>5.748245450827866</v>
       </c>
       <c r="D12">
-        <v>10.85755580223021</v>
+        <v>8.927241881661603</v>
       </c>
       <c r="E12">
-        <v>31.64096200961909</v>
+        <v>16.3460497673874</v>
       </c>
       <c r="F12">
-        <v>24.42402898783041</v>
+        <v>21.39914499473899</v>
       </c>
       <c r="G12">
-        <v>37.89811205141022</v>
+        <v>21.85927397206713</v>
       </c>
       <c r="H12">
-        <v>9.1603067842108</v>
+        <v>12.1275309442423</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.77006019233887</v>
+        <v>10.7865756301911</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>140.3740198996522</v>
+        <v>74.18980456318577</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.04424903414227</v>
+        <v>17.58716945365965</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.944787801760189</v>
+        <v>5.737824737113692</v>
       </c>
       <c r="D13">
-        <v>10.78664368326797</v>
+        <v>8.928203187964147</v>
       </c>
       <c r="E13">
-        <v>31.45361975709529</v>
+        <v>16.32611708482011</v>
       </c>
       <c r="F13">
-        <v>24.17983079147932</v>
+        <v>21.42523692774687</v>
       </c>
       <c r="G13">
-        <v>37.61636329972009</v>
+        <v>21.86748158754227</v>
       </c>
       <c r="H13">
-        <v>9.091157716646135</v>
+        <v>12.1345316577235</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.65517904109037</v>
+        <v>10.77730551859932</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>139.7452906167182</v>
+        <v>74.01009234956204</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.89808582498399</v>
+        <v>17.59837073570781</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.836151816633016</v>
+        <v>5.70374541054768</v>
       </c>
       <c r="D14">
-        <v>10.56254188753607</v>
+        <v>8.931440250072392</v>
       </c>
       <c r="E14">
-        <v>30.85965303382133</v>
+        <v>16.2611469535759</v>
       </c>
       <c r="F14">
-        <v>23.40567672960031</v>
+        <v>21.51075396884255</v>
       </c>
       <c r="G14">
-        <v>36.72071531406822</v>
+        <v>21.8950814179094</v>
       </c>
       <c r="H14">
-        <v>8.871497576455047</v>
+        <v>12.15749249331137</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.29039184593982</v>
+        <v>10.74714135475252</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>137.7360131994669</v>
+        <v>73.42085495547067</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.43317845306037</v>
+        <v>17.63521650451788</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.76987753290368</v>
+        <v>5.682798500804979</v>
       </c>
       <c r="D15">
-        <v>10.43020301883442</v>
+        <v>8.933501201903237</v>
       </c>
       <c r="E15">
-        <v>30.50750193132137</v>
+        <v>16.22137890527343</v>
       </c>
       <c r="F15">
-        <v>22.94691536566391</v>
+        <v>21.56346122381055</v>
       </c>
       <c r="G15">
-        <v>36.18818930930441</v>
+        <v>21.91262308496066</v>
       </c>
       <c r="H15">
-        <v>8.741013570150503</v>
+        <v>12.17165631129745</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.07371195284225</v>
+        <v>10.72871744528137</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>136.5332795917</v>
+        <v>73.0575032657287</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.1565523730439</v>
+        <v>17.65802723163491</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.392344797993204</v>
+        <v>5.56168345916173</v>
       </c>
       <c r="D16">
-        <v>9.729797361704245</v>
+        <v>8.946499522745818</v>
       </c>
       <c r="E16">
-        <v>28.62547177079232</v>
+        <v>15.99397211163616</v>
       </c>
       <c r="F16">
-        <v>20.50354418365253</v>
+        <v>21.87043889737904</v>
       </c>
       <c r="G16">
-        <v>33.32922155633481</v>
+        <v>22.02272385486442</v>
       </c>
       <c r="H16">
-        <v>8.042236912914595</v>
+        <v>12.25434089511706</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.91043926352228</v>
+        <v>10.62396313444614</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>129.9588501982388</v>
+        <v>70.93804746976106</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.66841965454774</v>
+        <v>17.79240282520595</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.161303694639233</v>
+        <v>5.486458836620758</v>
       </c>
       <c r="D17">
-        <v>9.338469482579999</v>
+        <v>8.955522594631093</v>
       </c>
       <c r="E17">
-        <v>27.55962368487667</v>
+        <v>15.85496526488797</v>
       </c>
       <c r="F17">
-        <v>19.13158915700763</v>
+        <v>22.06310307218767</v>
       </c>
       <c r="G17">
-        <v>31.70623196579317</v>
+        <v>22.09862538730496</v>
       </c>
       <c r="H17">
-        <v>7.647110404299998</v>
+        <v>12.30640887630448</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.24758740113862</v>
+        <v>10.56045923240561</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>126.124606230781</v>
+        <v>69.60456973431124</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.82095580154867</v>
+        <v>17.87805057260941</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.028197688653876</v>
+        <v>5.442866975308779</v>
       </c>
       <c r="D18">
-        <v>9.123693009381476</v>
+        <v>8.961093650748261</v>
       </c>
       <c r="E18">
-        <v>26.96993131994531</v>
+        <v>15.77522203582448</v>
       </c>
       <c r="F18">
-        <v>18.37826872864573</v>
+        <v>22.17549218433305</v>
       </c>
       <c r="G18">
-        <v>30.80918338570488</v>
+        <v>22.14527912694761</v>
       </c>
       <c r="H18">
-        <v>7.429301828964355</v>
+        <v>12.33684677275467</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>17.87954985197998</v>
+        <v>10.52422160724156</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>123.9683461682127</v>
+        <v>68.82535421726817</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.35155011900407</v>
+        <v>17.92847406348184</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.983062398369819</v>
+        <v>5.428053257593441</v>
       </c>
       <c r="D19">
-        <v>9.052479485434315</v>
+        <v>8.963044986733379</v>
       </c>
       <c r="E19">
-        <v>26.77363796762378</v>
+        <v>15.74826091430366</v>
       </c>
       <c r="F19">
-        <v>18.12860622058273</v>
+        <v>22.21381347546513</v>
       </c>
       <c r="G19">
-        <v>30.51090693440075</v>
+        <v>22.16158297132772</v>
       </c>
       <c r="H19">
-        <v>7.356980540320168</v>
+        <v>12.34723626760544</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.75682890169129</v>
+        <v>10.51200251657893</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>123.2450294053973</v>
+        <v>68.5594231581964</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.19529371395533</v>
+        <v>17.94574421268107</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.185913164509069</v>
+        <v>5.494500577459041</v>
       </c>
       <c r="D20">
-        <v>9.378993170254992</v>
+        <v>8.954522521897072</v>
       </c>
       <c r="E20">
-        <v>27.67050335864524</v>
+        <v>15.86974166193652</v>
       </c>
       <c r="F20">
-        <v>19.27374013562749</v>
+        <v>22.0424302742748</v>
       </c>
       <c r="G20">
-        <v>31.87502212284014</v>
+        <v>22.09023366005661</v>
       </c>
       <c r="H20">
-        <v>7.688142512632695</v>
+        <v>12.30081537230694</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.31668430696337</v>
+        <v>10.5671897138483</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>126.5272593659209</v>
+        <v>69.74778671913535</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.90919608689118</v>
+        <v>17.86881261410247</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.867999402710094</v>
+        <v>5.713770484580222</v>
       </c>
       <c r="D21">
-        <v>10.62728563298752</v>
+        <v>8.930473134046498</v>
       </c>
       <c r="E21">
-        <v>31.03155416052778</v>
+        <v>16.28022455117347</v>
       </c>
       <c r="F21">
-        <v>23.62969548405172</v>
+        <v>21.48556754664924</v>
       </c>
       <c r="G21">
-        <v>36.98027516174625</v>
+        <v>21.88684173384202</v>
       </c>
       <c r="H21">
-        <v>8.93513005061112</v>
+        <v>12.15072754993327</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.39605335673454</v>
+        <v>10.75599040698662</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>138.3200147484631</v>
+        <v>73.59443389933207</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.56795274964634</v>
+        <v>17.62434353973027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.32501498290488</v>
+        <v>5.853877771086395</v>
       </c>
       <c r="D22">
-        <v>11.65750750291762</v>
+        <v>8.918242035093453</v>
       </c>
       <c r="E22">
-        <v>33.73525437981994</v>
+        <v>16.54982308396328</v>
       </c>
       <c r="F22">
-        <v>27.14905790011143</v>
+        <v>21.13613684299026</v>
       </c>
       <c r="G22">
-        <v>41.01705293427941</v>
+        <v>21.78217777987578</v>
       </c>
       <c r="H22">
-        <v>9.927173586801139</v>
+        <v>12.05708530570076</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.04872717243905</v>
+        <v>10.8817572033885</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>147.2411515013097</v>
+        <v>75.99978792849865</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.65986418888263</v>
+        <v>17.47533062995664</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.07894231382803</v>
+        <v>5.779406322890205</v>
       </c>
       <c r="D23">
-        <v>11.07708588538209</v>
+        <v>8.924446479863349</v>
       </c>
       <c r="E23">
-        <v>32.21913905641128</v>
+        <v>16.40583752280764</v>
       </c>
       <c r="F23">
-        <v>25.1774914569343</v>
+        <v>21.32128091067992</v>
       </c>
       <c r="G23">
-        <v>38.76510458901706</v>
+        <v>21.8353771556796</v>
       </c>
       <c r="H23">
-        <v>9.373230499622876</v>
+        <v>12.10665246222129</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21.12408232502873</v>
+        <v>10.81442499915463</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>142.2993440174275</v>
+        <v>74.72592858583477</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.4937795499113</v>
+        <v>17.55385585156602</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.174788182896085</v>
+        <v>5.490865975050967</v>
       </c>
       <c r="D24">
-        <v>9.36064147922983</v>
+        <v>8.954973461049908</v>
       </c>
       <c r="E24">
-        <v>27.62030484779303</v>
+        <v>15.8630607057563</v>
       </c>
       <c r="F24">
-        <v>19.20936574235304</v>
+        <v>22.05177139336152</v>
       </c>
       <c r="G24">
-        <v>31.79860248124911</v>
+        <v>22.09401818042031</v>
       </c>
       <c r="H24">
-        <v>7.66956340182824</v>
+        <v>12.30334262868171</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.28540618393549</v>
+        <v>10.56414601503846</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>126.3450754515308</v>
+        <v>69.68307751126132</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.86924852271252</v>
+        <v>17.87298541352079</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.191893754625008</v>
+        <v>5.167454195365126</v>
       </c>
       <c r="D25">
-        <v>7.914853717767182</v>
+        <v>9.002424907088912</v>
       </c>
       <c r="E25">
-        <v>23.58057479228216</v>
+        <v>15.28597090918914</v>
       </c>
       <c r="F25">
-        <v>14.18012577792078</v>
+        <v>22.89967831141087</v>
       </c>
       <c r="G25">
-        <v>25.71382196770844</v>
+        <v>22.48664408048192</v>
       </c>
       <c r="H25">
-        <v>6.202818926310592</v>
+        <v>12.53418590203439</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.7450608253663</v>
+        <v>10.30530873076515</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>111.0845500817197</v>
+        <v>63.77585563444067</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.66686956802793</v>
+        <v>18.26139329634551</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.920821042693349</v>
+        <v>7.434966785788168</v>
       </c>
       <c r="D2">
-        <v>9.049374931987233</v>
+        <v>6.978719476478103</v>
       </c>
       <c r="E2">
-        <v>14.87132837618671</v>
+        <v>20.8569304280254</v>
       </c>
       <c r="F2">
-        <v>23.57344825814363</v>
+        <v>11.09384123985552</v>
       </c>
       <c r="G2">
-        <v>22.86492872204558</v>
+        <v>21.79170151721142</v>
       </c>
       <c r="H2">
-        <v>12.71982417213049</v>
+        <v>5.637321929509731</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.12527413481625</v>
+        <v>14.00397895443128</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>59.02342950016224</v>
+        <v>100.1135638901702</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.58332014747845</v>
+        <v>11.56653903326529</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749564180890503</v>
+        <v>6.89488005565316</v>
       </c>
       <c r="D3">
-        <v>9.088453672064107</v>
+        <v>6.379947866629839</v>
       </c>
       <c r="E3">
-        <v>14.59835990872851</v>
+        <v>19.05619826416254</v>
       </c>
       <c r="F3">
-        <v>24.06004497121543</v>
+        <v>9.309786007657578</v>
       </c>
       <c r="G3">
-        <v>23.17267786785296</v>
+        <v>19.35637205806045</v>
       </c>
       <c r="H3">
-        <v>12.85522549006706</v>
+        <v>5.661904232008214</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.01032181506775</v>
+        <v>12.83846152199638</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>55.55207178020056</v>
+        <v>92.54980035722332</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.82296337929108</v>
+        <v>10.23546470423133</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.642847137742884</v>
+        <v>6.548515808966167</v>
       </c>
       <c r="D4">
-        <v>9.115954648386445</v>
+        <v>6.021797706471482</v>
       </c>
       <c r="E4">
-        <v>14.4352822732601</v>
+        <v>17.95172555390549</v>
       </c>
       <c r="F4">
-        <v>24.37335300164089</v>
+        <v>8.371028726315455</v>
       </c>
       <c r="G4">
-        <v>23.38559645693615</v>
+        <v>17.95269120830071</v>
       </c>
       <c r="H4">
-        <v>12.94303752811742</v>
+        <v>5.721362767815671</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.943375437464914</v>
+        <v>12.11718898070176</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>53.29776787465694</v>
+        <v>87.78521668528639</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.98039990439404</v>
+        <v>9.508148970878958</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.599042422035566</v>
+        <v>6.403499050425666</v>
       </c>
       <c r="D5">
-        <v>9.128032462041402</v>
+        <v>5.892771730663195</v>
       </c>
       <c r="E5">
-        <v>14.3700502232123</v>
+        <v>17.49967990848245</v>
       </c>
       <c r="F5">
-        <v>24.50464912464627</v>
+        <v>8.31363244544645</v>
       </c>
       <c r="G5">
-        <v>23.4781854778397</v>
+        <v>17.40247172314781</v>
       </c>
       <c r="H5">
-        <v>12.97998898397182</v>
+        <v>5.754909802570703</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.917030498814444</v>
+        <v>11.82044647591029</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>52.34840256380174</v>
+        <v>85.80705751551567</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.0471028815053</v>
+        <v>9.429156875282734</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.591751920823855</v>
+        <v>6.379181162556491</v>
       </c>
       <c r="D6">
-        <v>9.130090266308651</v>
+        <v>5.884121046805251</v>
       </c>
       <c r="E6">
-        <v>14.35929484925585</v>
+        <v>17.42444420870819</v>
       </c>
       <c r="F6">
-        <v>24.52666847233554</v>
+        <v>8.311574938391992</v>
       </c>
       <c r="G6">
-        <v>23.49390570592758</v>
+        <v>17.3124073381838</v>
       </c>
       <c r="H6">
-        <v>12.98619501584465</v>
+        <v>5.760993922449038</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.91271310744359</v>
+        <v>11.77096756974841</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>52.18891252212197</v>
+        <v>85.47622137828486</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.05833145014889</v>
+        <v>9.417384252766142</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.642257548175663</v>
+        <v>6.546575926976781</v>
       </c>
       <c r="D7">
-        <v>9.116114021626833</v>
+        <v>6.019845012951659</v>
       </c>
       <c r="E7">
-        <v>14.43439746566026</v>
+        <v>17.94563962570326</v>
       </c>
       <c r="F7">
-        <v>24.3751090906499</v>
+        <v>8.366264150821626</v>
       </c>
       <c r="G7">
-        <v>23.38682183068499</v>
+        <v>17.94518341410963</v>
       </c>
       <c r="H7">
-        <v>12.94353115243495</v>
+        <v>5.721779721837343</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.943016321331221</v>
+        <v>12.11320002999856</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>53.28508849058028</v>
+        <v>87.75869378595212</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.98128922860215</v>
+        <v>9.506991988729521</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.862140570404265</v>
+        <v>7.251698405132068</v>
       </c>
       <c r="D8">
-        <v>9.062114939295229</v>
+        <v>6.769702566959612</v>
       </c>
       <c r="E8">
-        <v>14.77632089438222</v>
+        <v>20.23422303317583</v>
       </c>
       <c r="F8">
-        <v>23.73818810412237</v>
+        <v>10.4474227494967</v>
       </c>
       <c r="G8">
-        <v>22.96594497557528</v>
+        <v>20.93186966406594</v>
       </c>
       <c r="H8">
-        <v>12.76553515916864</v>
+        <v>5.635406742111513</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.08489798456134</v>
+        <v>13.60231902521391</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>57.85209563267954</v>
+        <v>97.52627156676459</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.66378642252099</v>
+        <v>11.09967995183314</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.277861113304152</v>
+        <v>8.527010271513495</v>
       </c>
       <c r="D9">
-        <v>8.984543361719473</v>
+        <v>8.373411141687184</v>
       </c>
       <c r="E9">
-        <v>15.47898182267786</v>
+        <v>24.88133187810762</v>
       </c>
       <c r="F9">
-        <v>22.60624768092319</v>
+        <v>15.75820665239058</v>
       </c>
       <c r="G9">
-        <v>22.33996019051571</v>
+        <v>27.65144379613013</v>
       </c>
       <c r="H9">
-        <v>12.45396642972739</v>
+        <v>6.666697148371976</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.39092549020215</v>
+        <v>16.56820836213785</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65.82832083816206</v>
+        <v>116.1286372600099</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.12484182855108</v>
+        <v>14.69211390357961</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.570222006645617</v>
+        <v>9.418705634306718</v>
       </c>
       <c r="D10">
-        <v>8.945521894065966</v>
+        <v>9.776083099412283</v>
       </c>
       <c r="E10">
-        <v>16.00986028328156</v>
+        <v>28.75083403605815</v>
       </c>
       <c r="F10">
-        <v>21.84866941483864</v>
+        <v>20.66561853411438</v>
       </c>
       <c r="G10">
-        <v>22.01447449111392</v>
+        <v>33.52008224724487</v>
       </c>
       <c r="H10">
-        <v>12.24846622997864</v>
+        <v>8.088784058092122</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.63124776017389</v>
+        <v>18.98820590338705</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>71.08854949472322</v>
+        <v>130.4045154858064</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.78278856228542</v>
+        <v>17.76794092111587</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.6997439850251</v>
+        <v>9.823464090873363</v>
       </c>
       <c r="D11">
-        <v>8.931829739655749</v>
+        <v>10.53696016263725</v>
       </c>
       <c r="E11">
-        <v>16.25354037498679</v>
+        <v>30.79166243713138</v>
       </c>
       <c r="F11">
-        <v>21.52081394496465</v>
+        <v>23.31708419256643</v>
       </c>
       <c r="G11">
-        <v>21.89839834097976</v>
+        <v>36.61798077184976</v>
       </c>
       <c r="H11">
-        <v>12.16019514680652</v>
+        <v>8.846317539941024</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.74361500737776</v>
+        <v>20.2485806010861</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>73.3515149663338</v>
+        <v>137.5044660119258</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.63956432107203</v>
+        <v>19.37982426315086</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.748245450827866</v>
+        <v>9.978229929362472</v>
       </c>
       <c r="D12">
-        <v>8.927241881661603</v>
+        <v>10.85755580223037</v>
       </c>
       <c r="E12">
-        <v>16.3460497673874</v>
+        <v>31.64096200961923</v>
       </c>
       <c r="F12">
-        <v>21.39914499473899</v>
+        <v>24.42402898783054</v>
       </c>
       <c r="G12">
-        <v>21.85927397206713</v>
+        <v>37.89811205141027</v>
       </c>
       <c r="H12">
-        <v>12.1275309442423</v>
+        <v>9.160306784210789</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.7865756301911</v>
+        <v>20.77006019233893</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>74.18980456318577</v>
+        <v>140.3740198996527</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.58716945365965</v>
+        <v>20.04424903414229</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.737824737113692</v>
+        <v>9.944787801760215</v>
       </c>
       <c r="D13">
-        <v>8.928203187964147</v>
+        <v>10.78664368326795</v>
       </c>
       <c r="E13">
-        <v>16.32611708482011</v>
+        <v>31.45361975709519</v>
       </c>
       <c r="F13">
-        <v>21.42523692774687</v>
+        <v>24.17983079147916</v>
       </c>
       <c r="G13">
-        <v>21.86748158754227</v>
+        <v>37.61636329971977</v>
       </c>
       <c r="H13">
-        <v>12.1345316577235</v>
+        <v>9.091157716646132</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.77730551859932</v>
+        <v>20.65517904109032</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>74.01009234956204</v>
+        <v>139.745290616718</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.59837073570781</v>
+        <v>19.89808582498388</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.70374541054768</v>
+        <v>9.836151816633112</v>
       </c>
       <c r="D14">
-        <v>8.931440250072392</v>
+        <v>10.56254188753608</v>
       </c>
       <c r="E14">
-        <v>16.2611469535759</v>
+        <v>30.85965303382136</v>
       </c>
       <c r="F14">
-        <v>21.51075396884255</v>
+        <v>23.40567672960024</v>
       </c>
       <c r="G14">
-        <v>21.8950814179094</v>
+        <v>36.72071531406814</v>
       </c>
       <c r="H14">
-        <v>12.15749249331137</v>
+        <v>8.871497576455099</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.74714135475252</v>
+        <v>20.29039184593982</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>73.42085495547067</v>
+        <v>137.7360131994666</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.63521650451788</v>
+        <v>19.43317845306031</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.682798500804979</v>
+        <v>9.769877532903724</v>
       </c>
       <c r="D15">
-        <v>8.933501201903237</v>
+        <v>10.43020301883454</v>
       </c>
       <c r="E15">
-        <v>16.22137890527343</v>
+        <v>30.5075019313214</v>
       </c>
       <c r="F15">
-        <v>21.56346122381055</v>
+        <v>22.94691536566374</v>
       </c>
       <c r="G15">
-        <v>21.91262308496066</v>
+        <v>36.18818930930395</v>
       </c>
       <c r="H15">
-        <v>12.17165631129745</v>
+        <v>8.741013570150452</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.72871744528137</v>
+        <v>20.07371195284221</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>73.0575032657287</v>
+        <v>136.5332795917002</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.65802723163491</v>
+        <v>19.15655237304371</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.56168345916173</v>
+        <v>9.392344797993289</v>
       </c>
       <c r="D16">
-        <v>8.946499522745818</v>
+        <v>9.729797361704398</v>
       </c>
       <c r="E16">
-        <v>15.99397211163616</v>
+        <v>28.62547177079248</v>
       </c>
       <c r="F16">
-        <v>21.87043889737904</v>
+        <v>20.50354418365228</v>
       </c>
       <c r="G16">
-        <v>22.02272385486442</v>
+        <v>33.32922155633435</v>
       </c>
       <c r="H16">
-        <v>12.25434089511706</v>
+        <v>8.042236912914527</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.62396313444614</v>
+        <v>18.91043926352234</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>70.93804746976106</v>
+        <v>129.9588501982391</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.79240282520595</v>
+        <v>17.66841965454751</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.486458836620758</v>
+        <v>9.161303694639276</v>
       </c>
       <c r="D17">
-        <v>8.955522594631093</v>
+        <v>9.33846948257993</v>
       </c>
       <c r="E17">
-        <v>15.85496526488797</v>
+        <v>27.55962368487655</v>
       </c>
       <c r="F17">
-        <v>22.06310307218767</v>
+        <v>19.13158915700753</v>
       </c>
       <c r="G17">
-        <v>22.09862538730496</v>
+        <v>31.70623196579302</v>
       </c>
       <c r="H17">
-        <v>12.30640887630448</v>
+        <v>7.647110404299941</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.56045923240561</v>
+        <v>18.24758740113859</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>69.60456973431124</v>
+        <v>126.1246062307807</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.87805057260941</v>
+        <v>16.82095580154865</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.442866975308779</v>
+        <v>9.028197688653993</v>
       </c>
       <c r="D18">
-        <v>8.961093650748261</v>
+        <v>9.123693009381489</v>
       </c>
       <c r="E18">
-        <v>15.77522203582448</v>
+        <v>26.96993131994534</v>
       </c>
       <c r="F18">
-        <v>22.17549218433305</v>
+        <v>18.3782687286461</v>
       </c>
       <c r="G18">
-        <v>22.14527912694761</v>
+        <v>30.80918338570527</v>
       </c>
       <c r="H18">
-        <v>12.33684677275467</v>
+        <v>7.429301828964421</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.52422160724156</v>
+        <v>17.87954985197998</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>68.82535421726817</v>
+        <v>123.9683461682127</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.92847406348184</v>
+        <v>16.35155011900424</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.428053257593441</v>
+        <v>8.983062398369841</v>
       </c>
       <c r="D19">
-        <v>8.963044986733379</v>
+        <v>9.052479485434443</v>
       </c>
       <c r="E19">
-        <v>15.74826091430366</v>
+        <v>26.77363796762386</v>
       </c>
       <c r="F19">
-        <v>22.21381347546513</v>
+        <v>18.12860622058287</v>
       </c>
       <c r="G19">
-        <v>22.16158297132772</v>
+        <v>30.51090693440084</v>
       </c>
       <c r="H19">
-        <v>12.34723626760544</v>
+        <v>7.356980540320168</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.51200251657893</v>
+        <v>17.75682890169133</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>68.5594231581964</v>
+        <v>123.2450294053975</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.94574421268107</v>
+        <v>16.19529371395539</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.494500577459041</v>
+        <v>9.185913164509085</v>
       </c>
       <c r="D20">
-        <v>8.954522521897072</v>
+        <v>9.378993170255008</v>
       </c>
       <c r="E20">
-        <v>15.86974166193652</v>
+        <v>27.67050335864527</v>
       </c>
       <c r="F20">
-        <v>22.0424302742748</v>
+        <v>19.27374013562741</v>
       </c>
       <c r="G20">
-        <v>22.09023366005661</v>
+        <v>31.87502212283993</v>
       </c>
       <c r="H20">
-        <v>12.30081537230694</v>
+        <v>7.688142512632695</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.5671897138483</v>
+        <v>18.31668430696338</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>69.74778671913535</v>
+        <v>126.5272593659209</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.86881261410247</v>
+        <v>16.90919608689111</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.713770484580222</v>
+        <v>9.867999402710057</v>
       </c>
       <c r="D21">
-        <v>8.930473134046498</v>
+        <v>10.6272856329876</v>
       </c>
       <c r="E21">
-        <v>16.28022455117347</v>
+        <v>31.0315541605277</v>
       </c>
       <c r="F21">
-        <v>21.48556754664924</v>
+        <v>23.6296954840519</v>
       </c>
       <c r="G21">
-        <v>21.88684173384202</v>
+        <v>36.9802751617463</v>
       </c>
       <c r="H21">
-        <v>12.15072754993327</v>
+        <v>8.935130050611214</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.75599040698662</v>
+        <v>20.39605335673446</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>73.59443389933207</v>
+        <v>138.3200147484627</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.62434353973027</v>
+        <v>19.56795274964639</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.853877771086395</v>
+        <v>10.32501498290486</v>
       </c>
       <c r="D22">
-        <v>8.918242035093453</v>
+        <v>11.65750750291757</v>
       </c>
       <c r="E22">
-        <v>16.54982308396328</v>
+        <v>33.7352543798201</v>
       </c>
       <c r="F22">
-        <v>21.13613684299026</v>
+        <v>27.14905790011156</v>
       </c>
       <c r="G22">
-        <v>21.78217777987578</v>
+        <v>41.0170529342796</v>
       </c>
       <c r="H22">
-        <v>12.05708530570076</v>
+        <v>9.927173586801127</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.8817572033885</v>
+        <v>22.04872717243914</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>75.99978792849865</v>
+        <v>147.2411515013102</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.47533062995664</v>
+        <v>21.6598641888827</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.779406322890205</v>
+        <v>10.078942313828</v>
       </c>
       <c r="D23">
-        <v>8.924446479863349</v>
+        <v>11.07708588538202</v>
       </c>
       <c r="E23">
-        <v>16.40583752280764</v>
+        <v>32.21913905641124</v>
       </c>
       <c r="F23">
-        <v>21.32128091067992</v>
+        <v>25.17749145693385</v>
       </c>
       <c r="G23">
-        <v>21.8353771556796</v>
+        <v>38.76510458901652</v>
       </c>
       <c r="H23">
-        <v>12.10665246222129</v>
+        <v>9.373230499622776</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.81442499915463</v>
+        <v>21.12408232502874</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>74.72592858583477</v>
+        <v>142.2993440174273</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.55385585156602</v>
+        <v>20.49377954991106</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.490865975050967</v>
+        <v>9.17478818289613</v>
       </c>
       <c r="D24">
-        <v>8.954973461049908</v>
+        <v>9.360641479229797</v>
       </c>
       <c r="E24">
-        <v>15.8630607057563</v>
+        <v>27.62030484779293</v>
       </c>
       <c r="F24">
-        <v>22.05177139336152</v>
+        <v>19.20936574235304</v>
       </c>
       <c r="G24">
-        <v>22.09401818042031</v>
+        <v>31.79860248124916</v>
       </c>
       <c r="H24">
-        <v>12.30334262868171</v>
+        <v>7.669563401828261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.56414601503846</v>
+        <v>18.28540618393543</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>69.68307751126132</v>
+        <v>126.3450754515308</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.87298541352079</v>
+        <v>16.86924852271255</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.167454195365126</v>
+        <v>8.191893754625097</v>
       </c>
       <c r="D25">
-        <v>9.002424907088912</v>
+        <v>7.914853717767199</v>
       </c>
       <c r="E25">
-        <v>15.28597090918914</v>
+        <v>23.58057479228216</v>
       </c>
       <c r="F25">
-        <v>22.89967831141087</v>
+        <v>14.18012577792097</v>
       </c>
       <c r="G25">
-        <v>22.48664408048192</v>
+        <v>25.71382196770867</v>
       </c>
       <c r="H25">
-        <v>12.53418590203439</v>
+        <v>6.202818926310637</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.30530873076515</v>
+        <v>15.74506082536631</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>63.77585563444067</v>
+        <v>111.0845500817196</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.26139329634551</v>
+        <v>13.66686956802803</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.434966785788168</v>
+        <v>7.242717841429059</v>
       </c>
       <c r="D2">
-        <v>6.978719476478103</v>
+        <v>4.93932029954125</v>
       </c>
       <c r="E2">
-        <v>20.8569304280254</v>
+        <v>8.693052845657663</v>
       </c>
       <c r="F2">
-        <v>11.09384123985552</v>
+        <v>30.48273955030302</v>
       </c>
       <c r="G2">
-        <v>21.79170151721142</v>
+        <v>39.077878601462</v>
       </c>
       <c r="H2">
-        <v>5.637321929509731</v>
+        <v>2.748424249267059</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.254042061836651</v>
       </c>
       <c r="J2">
-        <v>14.00397895443128</v>
+        <v>12.68699048868061</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.91072100081302</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.392755420778359</v>
       </c>
       <c r="M2">
-        <v>100.1135638901702</v>
+        <v>21.41136452735857</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.963101644476934</v>
       </c>
       <c r="O2">
-        <v>11.56653903326529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>13.00209588167513</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.89488005565316</v>
+        <v>6.870178804908575</v>
       </c>
       <c r="D3">
-        <v>6.379947866629839</v>
+        <v>4.740858560162859</v>
       </c>
       <c r="E3">
-        <v>19.05619826416254</v>
+        <v>8.38464160776034</v>
       </c>
       <c r="F3">
-        <v>9.309786007657578</v>
+        <v>29.69532270020916</v>
       </c>
       <c r="G3">
-        <v>19.35637205806045</v>
+        <v>37.89845752475579</v>
       </c>
       <c r="H3">
-        <v>5.661904232008214</v>
+        <v>3.017375843136556</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.488700045902684</v>
       </c>
       <c r="J3">
-        <v>12.83846152199638</v>
+        <v>12.54603393004571</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.39710133043457</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.274067844763357</v>
       </c>
       <c r="M3">
-        <v>92.54980035722332</v>
+        <v>20.10315622685123</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.869742682702289</v>
       </c>
       <c r="O3">
-        <v>10.23546470423133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.11901609145389</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.548515808966167</v>
+        <v>6.627574807765104</v>
       </c>
       <c r="D4">
-        <v>6.021797706471482</v>
+        <v>4.61540166171314</v>
       </c>
       <c r="E4">
-        <v>17.95172555390549</v>
+        <v>8.188494453135249</v>
       </c>
       <c r="F4">
-        <v>8.371028726315455</v>
+        <v>29.20917883740086</v>
       </c>
       <c r="G4">
-        <v>17.95269120830071</v>
+        <v>37.16765909216072</v>
       </c>
       <c r="H4">
-        <v>5.721362767815671</v>
+        <v>3.188358846914043</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.63874269964823</v>
       </c>
       <c r="J4">
-        <v>12.11718898070176</v>
+        <v>12.46192897483324</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>22.07911269223893</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.198898521539105</v>
       </c>
       <c r="M4">
-        <v>87.78521668528639</v>
+        <v>19.25520974180755</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.812090280849155</v>
       </c>
       <c r="O4">
-        <v>9.508148970878958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.19315477916065</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.403499050425666</v>
+        <v>6.516188939577135</v>
       </c>
       <c r="D5">
-        <v>5.892771730663195</v>
+        <v>4.564509300512415</v>
       </c>
       <c r="E5">
-        <v>17.49967990848245</v>
+        <v>8.105401090056786</v>
       </c>
       <c r="F5">
-        <v>8.31363244544645</v>
+        <v>28.9996603129037</v>
       </c>
       <c r="G5">
-        <v>17.40247172314781</v>
+        <v>36.84979185022205</v>
       </c>
       <c r="H5">
-        <v>5.754909802570703</v>
+        <v>3.260112532652049</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.704261742837605</v>
       </c>
       <c r="J5">
-        <v>11.82044647591029</v>
+        <v>12.4248044638642</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.93888880670087</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.166565697216822</v>
       </c>
       <c r="M5">
-        <v>85.80705751551567</v>
+        <v>18.89363355809395</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.789602720418915</v>
       </c>
       <c r="O5">
-        <v>9.429156875282734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.2245404845504</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.379181162556491</v>
+        <v>6.486407716658922</v>
       </c>
       <c r="D6">
-        <v>5.884121046805251</v>
+        <v>4.557335396191558</v>
       </c>
       <c r="E6">
-        <v>17.42444420870819</v>
+        <v>8.089653977873837</v>
       </c>
       <c r="F6">
-        <v>8.311574938391992</v>
+        <v>28.95146357277801</v>
       </c>
       <c r="G6">
-        <v>17.3124073381838</v>
+        <v>36.77403928503414</v>
       </c>
       <c r="H6">
-        <v>5.760993922449038</v>
+        <v>3.272827582713236</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.718880832640367</v>
       </c>
       <c r="J6">
-        <v>11.77096756974841</v>
+        <v>12.41443793072008</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.90322521300077</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.159777786030944</v>
       </c>
       <c r="M6">
-        <v>85.47622137828486</v>
+        <v>18.82691884961262</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.787191051121811</v>
       </c>
       <c r="O6">
-        <v>9.417384252766142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.23051269796613</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.546575926976781</v>
+        <v>6.596337107476378</v>
       </c>
       <c r="D7">
-        <v>6.019845012951659</v>
+        <v>4.618288908395065</v>
       </c>
       <c r="E7">
-        <v>17.94563962570326</v>
+        <v>8.182386538225837</v>
       </c>
       <c r="F7">
-        <v>8.366264150821626</v>
+        <v>29.17010081498139</v>
       </c>
       <c r="G7">
-        <v>17.94518341410963</v>
+        <v>37.10142393182805</v>
       </c>
       <c r="H7">
-        <v>5.721779721837343</v>
+        <v>3.191235497048891</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.649334687753924</v>
       </c>
       <c r="J7">
-        <v>12.11320002999856</v>
+        <v>12.44989228561923</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>22.04372098961429</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.194712279219238</v>
       </c>
       <c r="M7">
-        <v>87.75869378595212</v>
+        <v>19.23432021061864</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.815392500249152</v>
       </c>
       <c r="O7">
-        <v>9.506991988729521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.19563036338449</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.251698405132068</v>
+        <v>7.080064899454397</v>
       </c>
       <c r="D8">
-        <v>6.769702566959612</v>
+        <v>4.876160596645559</v>
       </c>
       <c r="E8">
-        <v>20.23422303317583</v>
+        <v>8.581827608617729</v>
       </c>
       <c r="F8">
-        <v>10.4474227494967</v>
+        <v>30.16536687671945</v>
       </c>
       <c r="G8">
-        <v>20.93186966406594</v>
+        <v>38.59360848961589</v>
       </c>
       <c r="H8">
-        <v>5.635406742111513</v>
+        <v>2.842399901150107</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.346323520995705</v>
       </c>
       <c r="J8">
-        <v>13.60231902521391</v>
+        <v>12.62284030730957</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.69101914274361</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.347485248149029</v>
       </c>
       <c r="M8">
-        <v>97.52627156676459</v>
+        <v>20.94986262365516</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.935680758968616</v>
       </c>
       <c r="O8">
-        <v>11.09967995183314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>13.04496172289507</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.527010271513495</v>
+        <v>7.966753478083779</v>
       </c>
       <c r="D9">
-        <v>8.373411141687184</v>
+        <v>5.345306424932711</v>
       </c>
       <c r="E9">
-        <v>24.88133187810762</v>
+        <v>9.317594286717847</v>
       </c>
       <c r="F9">
-        <v>15.75820665239058</v>
+        <v>32.14997624176775</v>
       </c>
       <c r="G9">
-        <v>27.65144379613013</v>
+        <v>41.55983908242688</v>
       </c>
       <c r="H9">
-        <v>6.666697148371976</v>
+        <v>2.200254611726312</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.782465442253448</v>
       </c>
       <c r="J9">
-        <v>16.56820836213785</v>
+        <v>13.00159620074345</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.99268690531565</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.63498281459599</v>
       </c>
       <c r="M9">
-        <v>116.1286372600099</v>
+        <v>23.98165492839185</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.162338785807268</v>
       </c>
       <c r="O9">
-        <v>14.69211390357961</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.76418432532707</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.418705634306718</v>
+        <v>8.489357656190517</v>
       </c>
       <c r="D10">
-        <v>9.776083099412283</v>
+        <v>5.639652944199932</v>
       </c>
       <c r="E10">
-        <v>28.75083403605815</v>
+        <v>9.716861313199614</v>
       </c>
       <c r="F10">
-        <v>20.66561853411438</v>
+        <v>33.38387656145601</v>
       </c>
       <c r="G10">
-        <v>33.52008224724487</v>
+        <v>43.40029558833678</v>
       </c>
       <c r="H10">
-        <v>8.088784058092122</v>
+        <v>1.789055956185061</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.557414194382544</v>
       </c>
       <c r="J10">
-        <v>18.98820590338705</v>
+        <v>13.23497279316478</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.78943422295325</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.785769553373202</v>
       </c>
       <c r="M10">
-        <v>130.4045154858064</v>
+        <v>25.92173701888775</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.274933487304788</v>
       </c>
       <c r="O10">
-        <v>17.76794092111587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.58600542275463</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.823464090873363</v>
+        <v>8.263257789683848</v>
       </c>
       <c r="D11">
-        <v>10.53696016263725</v>
+        <v>5.506896264532726</v>
       </c>
       <c r="E11">
-        <v>30.79166243713138</v>
+        <v>9.026665384508771</v>
       </c>
       <c r="F11">
-        <v>23.31708419256643</v>
+        <v>32.33073535292444</v>
       </c>
       <c r="G11">
-        <v>36.61798077184976</v>
+        <v>41.92878055237235</v>
       </c>
       <c r="H11">
-        <v>8.846317539941024</v>
+        <v>2.767643226727257</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.654850832804806</v>
       </c>
       <c r="J11">
-        <v>20.2485806010861</v>
+        <v>12.88202300048176</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.03721436472392</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.46886762498924</v>
       </c>
       <c r="M11">
-        <v>137.5044660119258</v>
+        <v>26.22462631404894</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.896808999583823</v>
       </c>
       <c r="O11">
-        <v>19.37982426315086</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.65716447199917</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.978229929362472</v>
+        <v>8.003384176655366</v>
       </c>
       <c r="D12">
-        <v>10.85755580223037</v>
+        <v>5.326553959523974</v>
       </c>
       <c r="E12">
-        <v>31.64096200961923</v>
+        <v>8.402967503437335</v>
       </c>
       <c r="F12">
-        <v>24.42402898783054</v>
+        <v>31.21206930438297</v>
       </c>
       <c r="G12">
-        <v>37.89811205141027</v>
+        <v>40.35468523764157</v>
       </c>
       <c r="H12">
-        <v>9.160306784210789</v>
+        <v>4.154744040215816</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.65991143321333</v>
       </c>
       <c r="J12">
-        <v>20.77006019233893</v>
+        <v>12.54564755811971</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.27017242468919</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.214870977272104</v>
       </c>
       <c r="M12">
-        <v>140.3740198996527</v>
+        <v>26.097831490948</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.591768368364707</v>
       </c>
       <c r="O12">
-        <v>20.04424903414229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.76778039305091</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.944787801760215</v>
+        <v>7.658485987445532</v>
       </c>
       <c r="D13">
-        <v>10.78664368326795</v>
+        <v>5.099473909693953</v>
       </c>
       <c r="E13">
-        <v>31.45361975709519</v>
+        <v>7.786134169206763</v>
       </c>
       <c r="F13">
-        <v>24.17983079147916</v>
+        <v>29.90648087596077</v>
       </c>
       <c r="G13">
-        <v>37.61636329971977</v>
+        <v>38.48931375751508</v>
       </c>
       <c r="H13">
-        <v>9.091157716646132</v>
+        <v>5.590175675947958</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.598637274317832</v>
       </c>
       <c r="J13">
-        <v>20.65517904109032</v>
+        <v>12.18221277407191</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.38792075579912</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.991814308767723</v>
       </c>
       <c r="M13">
-        <v>139.745290616718</v>
+        <v>25.60996585146792</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.335969045571227</v>
       </c>
       <c r="O13">
-        <v>19.89808582498388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.91335977584357</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.836151816633112</v>
+        <v>7.369129933272617</v>
       </c>
       <c r="D14">
-        <v>10.56254188753608</v>
+        <v>4.918304391101816</v>
       </c>
       <c r="E14">
-        <v>30.85965303382136</v>
+        <v>7.367844580898486</v>
       </c>
       <c r="F14">
-        <v>23.40567672960024</v>
+        <v>28.89259355564131</v>
       </c>
       <c r="G14">
-        <v>36.72071531406814</v>
+        <v>37.02350661622444</v>
       </c>
       <c r="H14">
-        <v>8.871497576455099</v>
+        <v>6.608141470498461</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.527190941348238</v>
       </c>
       <c r="J14">
-        <v>20.29039184593982</v>
+        <v>11.91286330673419</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.70696536249188</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.857963495478978</v>
       </c>
       <c r="M14">
-        <v>137.7360131994666</v>
+        <v>25.09435645951572</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.191319577880874</v>
       </c>
       <c r="O14">
-        <v>19.43317845306031</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>13.03174796146671</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.769877532903724</v>
+        <v>7.270773680514275</v>
       </c>
       <c r="D15">
-        <v>10.43020301883454</v>
+        <v>4.865208366411161</v>
       </c>
       <c r="E15">
-        <v>30.5075019313214</v>
+        <v>7.26157382502244</v>
       </c>
       <c r="F15">
-        <v>22.94691536566374</v>
+        <v>28.5955742899862</v>
       </c>
       <c r="G15">
-        <v>36.18818930930395</v>
+        <v>36.58541995744435</v>
       </c>
       <c r="H15">
-        <v>8.741013570150452</v>
+        <v>6.846729144949565</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.513275731994614</v>
       </c>
       <c r="J15">
-        <v>20.07371195284221</v>
+        <v>11.83861138132997</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.50665468426853</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.826066724970032</v>
       </c>
       <c r="M15">
-        <v>136.5332795917002</v>
+        <v>24.88507092473451</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.161223059344878</v>
       </c>
       <c r="O15">
-        <v>19.15655237304371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>13.06674141206061</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.392344797993289</v>
+        <v>7.087307179527494</v>
       </c>
       <c r="D16">
-        <v>9.729797361704398</v>
+        <v>4.778949506662465</v>
       </c>
       <c r="E16">
-        <v>28.62547177079248</v>
+        <v>7.193448388669337</v>
       </c>
       <c r="F16">
-        <v>20.50354418365228</v>
+        <v>28.27065955829614</v>
       </c>
       <c r="G16">
-        <v>33.32922155633435</v>
+        <v>36.06609649822961</v>
       </c>
       <c r="H16">
-        <v>8.042236912914527</v>
+        <v>6.665663622003402</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.66442073652473</v>
       </c>
       <c r="J16">
-        <v>18.91043926352234</v>
+        <v>11.80066229601138</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.30357195422701</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.802313855242329</v>
       </c>
       <c r="M16">
-        <v>129.9588501982391</v>
+        <v>24.14393589994463</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.163991195125963</v>
       </c>
       <c r="O16">
-        <v>17.66841965454751</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>13.09942577940932</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.161303694639276</v>
+        <v>7.102782729003179</v>
       </c>
       <c r="D17">
-        <v>9.33846948257993</v>
+        <v>4.811734994783461</v>
       </c>
       <c r="E17">
-        <v>27.55962368487655</v>
+        <v>7.359539031755906</v>
       </c>
       <c r="F17">
-        <v>19.13158915700753</v>
+        <v>28.57139271198728</v>
       </c>
       <c r="G17">
-        <v>31.70623196579302</v>
+        <v>36.46712140171351</v>
       </c>
       <c r="H17">
-        <v>7.647110404299941</v>
+        <v>5.960417782849304</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.741265614994627</v>
       </c>
       <c r="J17">
-        <v>18.24758740113859</v>
+        <v>11.91582518394721</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.51496116416651</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.850176534182103</v>
       </c>
       <c r="M17">
-        <v>126.1246062307807</v>
+        <v>23.85153677823518</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.237423549047849</v>
       </c>
       <c r="O17">
-        <v>16.82095580154865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.06375559143475</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.028197688653993</v>
+        <v>7.316079859094369</v>
       </c>
       <c r="D18">
-        <v>9.123693009381489</v>
+        <v>4.948941634144402</v>
       </c>
       <c r="E18">
-        <v>26.96993131994534</v>
+        <v>7.785876425949151</v>
       </c>
       <c r="F18">
-        <v>18.3782687286461</v>
+        <v>29.46736702947546</v>
       </c>
       <c r="G18">
-        <v>30.80918338570527</v>
+        <v>37.74463009592709</v>
       </c>
       <c r="H18">
-        <v>7.429301828964421</v>
+        <v>4.754448752200347</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.748480225075193</v>
       </c>
       <c r="J18">
-        <v>17.87954985197998</v>
+        <v>12.1829914263485</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.13049731455754</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.99403699936838</v>
       </c>
       <c r="M18">
-        <v>123.9683461682127</v>
+        <v>23.932694725569</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.410467925116544</v>
       </c>
       <c r="O18">
-        <v>16.35155011900424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.96861628948232</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.983062398369841</v>
+        <v>7.630710201578768</v>
       </c>
       <c r="D19">
-        <v>9.052479485434443</v>
+        <v>5.164077730509301</v>
       </c>
       <c r="E19">
-        <v>26.77363796762386</v>
+        <v>8.425660669689295</v>
       </c>
       <c r="F19">
-        <v>18.12860622058287</v>
+        <v>30.70936454784987</v>
       </c>
       <c r="G19">
-        <v>30.51090693440084</v>
+        <v>39.51668876551496</v>
       </c>
       <c r="H19">
-        <v>7.356980540320168</v>
+        <v>3.346513095650685</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.717982181243641</v>
       </c>
       <c r="J19">
-        <v>17.75682890169133</v>
+        <v>12.53341209436467</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.96851376347518</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.237284580906847</v>
       </c>
       <c r="M19">
-        <v>123.2450294053975</v>
+        <v>24.28038430084221</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.696430031193604</v>
       </c>
       <c r="O19">
-        <v>16.19529371395539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.84906912594438</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.185913164509085</v>
+        <v>8.278667987426481</v>
       </c>
       <c r="D20">
-        <v>9.378993170255008</v>
+        <v>5.571607241670646</v>
       </c>
       <c r="E20">
-        <v>27.67050335864527</v>
+        <v>9.59604404574484</v>
       </c>
       <c r="F20">
-        <v>19.27374013562741</v>
+        <v>32.95269866486339</v>
       </c>
       <c r="G20">
-        <v>31.87502212283993</v>
+        <v>42.73930420169787</v>
       </c>
       <c r="H20">
-        <v>7.688142512632695</v>
+        <v>1.89991833063719</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.543730833231637</v>
       </c>
       <c r="J20">
-        <v>18.31668430696338</v>
+        <v>13.13668461912482</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.48141544685843</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.734239674684896</v>
       </c>
       <c r="M20">
-        <v>126.5272593659209</v>
+        <v>25.38446158518032</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.253549059354937</v>
       </c>
       <c r="O20">
-        <v>16.90919608689111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.64136120497821</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.867999402710057</v>
+        <v>8.753523439094588</v>
       </c>
       <c r="D21">
-        <v>10.6272856329876</v>
+        <v>5.836122280096181</v>
       </c>
       <c r="E21">
-        <v>31.0315541605277</v>
+        <v>10.05340763632072</v>
       </c>
       <c r="F21">
-        <v>23.6296954840519</v>
+        <v>34.1924086490836</v>
       </c>
       <c r="G21">
-        <v>36.9802751617463</v>
+        <v>44.57027357427052</v>
       </c>
       <c r="H21">
-        <v>8.935130050611214</v>
+        <v>1.580267891809235</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.760011731939565</v>
       </c>
       <c r="J21">
-        <v>20.39605335673446</v>
+        <v>13.40666349512739</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.29792457312975</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.921610245318778</v>
       </c>
       <c r="M21">
-        <v>138.3200147484627</v>
+        <v>26.90655678260046</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.419830062725058</v>
       </c>
       <c r="O21">
-        <v>19.56795274964639</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.48468996174849</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.32501498290486</v>
+        <v>9.055481429623688</v>
       </c>
       <c r="D22">
-        <v>11.65750750291757</v>
+        <v>5.985211135902434</v>
       </c>
       <c r="E22">
-        <v>33.7352543798201</v>
+        <v>10.29763569401411</v>
       </c>
       <c r="F22">
-        <v>27.14905790011156</v>
+        <v>34.94245534056104</v>
       </c>
       <c r="G22">
-        <v>41.0170529342796</v>
+        <v>45.68797689214773</v>
       </c>
       <c r="H22">
-        <v>9.927173586801127</v>
+        <v>1.792146571096795</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.937439632201767</v>
       </c>
       <c r="J22">
-        <v>22.04872717243914</v>
+        <v>13.57275141910869</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.80077947319517</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.022042418582611</v>
       </c>
       <c r="M22">
-        <v>147.2411515013102</v>
+        <v>27.84513051412466</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.496244677047154</v>
       </c>
       <c r="O22">
-        <v>21.6598641888827</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.38805452952206</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.078942313828</v>
+        <v>8.92254469282212</v>
       </c>
       <c r="D23">
-        <v>11.07708588538202</v>
+        <v>5.90267024505735</v>
       </c>
       <c r="E23">
-        <v>32.21913905641124</v>
+        <v>10.17280788491137</v>
       </c>
       <c r="F23">
-        <v>25.17749145693385</v>
+        <v>34.57969474701434</v>
       </c>
       <c r="G23">
-        <v>38.76510458901652</v>
+        <v>45.1543450891019</v>
       </c>
       <c r="H23">
-        <v>9.373230499622776</v>
+        <v>1.681331346330827</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.839321882676656</v>
       </c>
       <c r="J23">
-        <v>21.12408232502874</v>
+        <v>13.49651439094715</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.56767287273657</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.972554982916577</v>
       </c>
       <c r="M23">
-        <v>142.2993440174273</v>
+        <v>27.36201908394781</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.451553391056938</v>
       </c>
       <c r="O23">
-        <v>20.49377954991106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.43582756043752</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.17478818289613</v>
+        <v>8.353419870833305</v>
       </c>
       <c r="D24">
-        <v>9.360641479229797</v>
+        <v>5.586621422345739</v>
       </c>
       <c r="E24">
-        <v>27.62030484779293</v>
+        <v>9.678431209816546</v>
       </c>
       <c r="F24">
-        <v>19.20936574235304</v>
+        <v>33.13469171910948</v>
       </c>
       <c r="G24">
-        <v>31.79860248124916</v>
+        <v>43.01237849216174</v>
       </c>
       <c r="H24">
-        <v>7.669563401828261</v>
+        <v>1.878097738122008</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.519301820463133</v>
       </c>
       <c r="J24">
-        <v>18.28540618393543</v>
+        <v>13.19274566053543</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.62099248856793</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.774731223269703</v>
       </c>
       <c r="M24">
-        <v>126.3450754515308</v>
+        <v>25.42994726334801</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.287397830806913</v>
       </c>
       <c r="O24">
-        <v>16.86924852271255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.627254106121</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.191893754625097</v>
+        <v>7.692107046147033</v>
       </c>
       <c r="D25">
-        <v>7.914853717767199</v>
+        <v>5.227646955903823</v>
       </c>
       <c r="E25">
-        <v>23.58057479228216</v>
+        <v>9.116662322487166</v>
       </c>
       <c r="F25">
-        <v>14.18012577792097</v>
+        <v>31.55651765621284</v>
       </c>
       <c r="G25">
-        <v>25.71382196770867</v>
+        <v>40.6633907450985</v>
       </c>
       <c r="H25">
-        <v>6.202818926310637</v>
+        <v>2.372492621942182</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.948782720262385</v>
       </c>
       <c r="J25">
-        <v>15.74506082536631</v>
+        <v>12.87696577084524</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.58710668249554</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.552886878859611</v>
       </c>
       <c r="M25">
-        <v>111.0845500817196</v>
+        <v>23.1755925913248</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.10766038814209</v>
       </c>
       <c r="O25">
-        <v>13.66686956802803</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.84279072044793</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.242717841429059</v>
+        <v>5.510138350410089</v>
       </c>
       <c r="D2">
-        <v>4.93932029954125</v>
+        <v>5.149602387170953</v>
       </c>
       <c r="E2">
-        <v>8.693052845657663</v>
+        <v>8.470557790765394</v>
       </c>
       <c r="F2">
-        <v>30.48273955030302</v>
+        <v>28.53343700895926</v>
       </c>
       <c r="G2">
-        <v>39.077878601462</v>
+        <v>35.55487608561901</v>
       </c>
       <c r="H2">
-        <v>2.748424249267059</v>
+        <v>2.621609406547482</v>
       </c>
       <c r="I2">
-        <v>3.254042061836651</v>
+        <v>3.07946140120039</v>
       </c>
       <c r="J2">
-        <v>12.68699048868061</v>
+        <v>12.18858079465855</v>
       </c>
       <c r="K2">
-        <v>22.91072100081302</v>
+        <v>20.98167259872782</v>
       </c>
       <c r="L2">
-        <v>6.392755420778359</v>
+        <v>16.92336909108733</v>
       </c>
       <c r="M2">
-        <v>21.41136452735857</v>
+        <v>14.31831682412991</v>
       </c>
       <c r="N2">
-        <v>5.963101644476934</v>
+        <v>6.184863965169765</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>20.67693371832231</v>
       </c>
       <c r="P2">
-        <v>13.00209588167513</v>
+        <v>6.335196287038476</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.02947809104288</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.870178804908575</v>
+        <v>5.24501572958484</v>
       </c>
       <c r="D3">
-        <v>4.740858560162859</v>
+        <v>4.940692470467015</v>
       </c>
       <c r="E3">
-        <v>8.38464160776034</v>
+        <v>8.19311887516219</v>
       </c>
       <c r="F3">
-        <v>29.69532270020916</v>
+        <v>27.9082731094303</v>
       </c>
       <c r="G3">
-        <v>37.89845752475579</v>
+        <v>34.70010723146908</v>
       </c>
       <c r="H3">
-        <v>3.017375843136556</v>
+        <v>2.860898985292238</v>
       </c>
       <c r="I3">
-        <v>3.488700045902684</v>
+        <v>3.27821215525812</v>
       </c>
       <c r="J3">
-        <v>12.54603393004571</v>
+        <v>12.05498599401066</v>
       </c>
       <c r="K3">
-        <v>22.39710133043457</v>
+        <v>20.61512496761404</v>
       </c>
       <c r="L3">
-        <v>6.274067844763357</v>
+        <v>16.79299620394051</v>
       </c>
       <c r="M3">
-        <v>20.10315622685123</v>
+        <v>13.89761587377009</v>
       </c>
       <c r="N3">
-        <v>5.869742682702289</v>
+        <v>6.086426333696023</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>19.42851138091419</v>
       </c>
       <c r="P3">
-        <v>13.11901609145389</v>
+        <v>6.234478467205832</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.10794866704733</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.627574807765104</v>
+        <v>5.071629701602476</v>
       </c>
       <c r="D4">
-        <v>4.61540166171314</v>
+        <v>4.808787308563533</v>
       </c>
       <c r="E4">
-        <v>8.188494453135249</v>
+        <v>8.016685641873829</v>
       </c>
       <c r="F4">
-        <v>29.20917883740086</v>
+        <v>27.52232913266577</v>
       </c>
       <c r="G4">
-        <v>37.16765909216072</v>
+        <v>34.17590401525997</v>
       </c>
       <c r="H4">
-        <v>3.188358846914043</v>
+        <v>3.013225717120388</v>
       </c>
       <c r="I4">
-        <v>3.63874269964823</v>
+        <v>3.405802024141916</v>
       </c>
       <c r="J4">
-        <v>12.46192897483324</v>
+        <v>11.97261845547571</v>
       </c>
       <c r="K4">
-        <v>22.07911269223893</v>
+        <v>20.38751862034834</v>
       </c>
       <c r="L4">
-        <v>6.198898521539105</v>
+        <v>16.70566052702442</v>
       </c>
       <c r="M4">
-        <v>19.25520974180755</v>
+        <v>13.65321407239206</v>
       </c>
       <c r="N4">
-        <v>5.812090280849155</v>
+        <v>6.023885150881879</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18.61792270910906</v>
       </c>
       <c r="P4">
-        <v>13.19315477916065</v>
+        <v>6.172741064568665</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.15918064378405</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.516188939577135</v>
+        <v>4.990068805130413</v>
       </c>
       <c r="D5">
-        <v>4.564509300512415</v>
+        <v>4.755242622192812</v>
       </c>
       <c r="E5">
-        <v>8.105401090056786</v>
+        <v>7.941897203153165</v>
       </c>
       <c r="F5">
-        <v>28.9996603129037</v>
+        <v>27.35436290667996</v>
       </c>
       <c r="G5">
-        <v>36.84979185022205</v>
+        <v>33.94510796497724</v>
       </c>
       <c r="H5">
-        <v>3.260112532652049</v>
+        <v>3.077200209462104</v>
       </c>
       <c r="I5">
-        <v>3.704261742837605</v>
+        <v>3.462479069775767</v>
       </c>
       <c r="J5">
-        <v>12.4248044638642</v>
+        <v>11.93564969468838</v>
       </c>
       <c r="K5">
-        <v>21.93888880670087</v>
+        <v>20.28482443837178</v>
       </c>
       <c r="L5">
-        <v>6.166565697216822</v>
+        <v>16.66035643731205</v>
       </c>
       <c r="M5">
-        <v>18.89363355809395</v>
+        <v>13.55112611264749</v>
       </c>
       <c r="N5">
-        <v>5.789602720418915</v>
+        <v>5.996855360207846</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>18.27189013571429</v>
       </c>
       <c r="P5">
-        <v>13.2245404845504</v>
+        <v>6.148724800270434</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.18156519735081</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.486407716658922</v>
+        <v>4.966334373841244</v>
       </c>
       <c r="D6">
-        <v>4.557335396191558</v>
+        <v>4.747595896167529</v>
       </c>
       <c r="E6">
-        <v>8.089653977873837</v>
+        <v>7.927663695291895</v>
       </c>
       <c r="F6">
-        <v>28.95146357277801</v>
+        <v>27.31385986877107</v>
       </c>
       <c r="G6">
-        <v>36.77403928503414</v>
+        <v>33.8854093288505</v>
       </c>
       <c r="H6">
-        <v>3.272827582713236</v>
+        <v>3.088543340112334</v>
       </c>
       <c r="I6">
-        <v>3.718880832640367</v>
+        <v>3.47617630402778</v>
       </c>
       <c r="J6">
-        <v>12.41443793072008</v>
+        <v>11.9254351549898</v>
       </c>
       <c r="K6">
-        <v>21.90322521300077</v>
+        <v>20.25629111484891</v>
       </c>
       <c r="L6">
-        <v>6.159777786030944</v>
+        <v>16.64311520694868</v>
       </c>
       <c r="M6">
-        <v>18.82691884961262</v>
+        <v>13.52667097530933</v>
       </c>
       <c r="N6">
-        <v>5.787191051121811</v>
+        <v>5.99108756719986</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>18.20798750731775</v>
       </c>
       <c r="P6">
-        <v>13.23051269796613</v>
+        <v>6.146092519258155</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.18625736197844</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.596337107476378</v>
+        <v>5.048863469341575</v>
       </c>
       <c r="D7">
-        <v>4.618288908395065</v>
+        <v>4.816214350143726</v>
       </c>
       <c r="E7">
-        <v>8.182386538225837</v>
+        <v>8.012609864800185</v>
       </c>
       <c r="F7">
-        <v>29.17010081498139</v>
+        <v>27.46637348861389</v>
       </c>
       <c r="G7">
-        <v>37.10142393182805</v>
+        <v>34.18837829695278</v>
       </c>
       <c r="H7">
-        <v>3.191235497048891</v>
+        <v>3.016571525947429</v>
       </c>
       <c r="I7">
-        <v>3.649334687753924</v>
+        <v>3.418470750513922</v>
       </c>
       <c r="J7">
-        <v>12.44989228561923</v>
+        <v>11.91302242429669</v>
       </c>
       <c r="K7">
-        <v>22.04372098961429</v>
+        <v>20.34205517145069</v>
       </c>
       <c r="L7">
-        <v>6.194712279219238</v>
+        <v>16.66856789914812</v>
       </c>
       <c r="M7">
-        <v>19.23432021061864</v>
+        <v>13.62141936133019</v>
       </c>
       <c r="N7">
-        <v>5.815392500249152</v>
+        <v>6.019616849119978</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>18.58837883027814</v>
       </c>
       <c r="P7">
-        <v>13.19563036338449</v>
+        <v>6.175796966329637</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.16366787764219</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.080064899454397</v>
+        <v>5.403842887681225</v>
       </c>
       <c r="D8">
-        <v>4.876160596645559</v>
+        <v>5.097551141378623</v>
       </c>
       <c r="E8">
-        <v>8.581827608617729</v>
+        <v>8.375426998959947</v>
       </c>
       <c r="F8">
-        <v>30.16536687671945</v>
+        <v>28.21152221460765</v>
       </c>
       <c r="G8">
-        <v>38.59360848961589</v>
+        <v>35.42415094442096</v>
       </c>
       <c r="H8">
-        <v>2.842399901150107</v>
+        <v>2.707580196913301</v>
       </c>
       <c r="I8">
-        <v>3.346323520995705</v>
+        <v>3.163623298581357</v>
       </c>
       <c r="J8">
-        <v>12.62284030730957</v>
+        <v>11.97192799175416</v>
       </c>
       <c r="K8">
-        <v>22.69101914274361</v>
+        <v>20.77373736234428</v>
       </c>
       <c r="L8">
-        <v>6.347485248149029</v>
+        <v>16.81446582429067</v>
       </c>
       <c r="M8">
-        <v>20.94986262365516</v>
+        <v>14.11109191036346</v>
       </c>
       <c r="N8">
-        <v>5.935680758968616</v>
+        <v>6.145373306593788</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>20.20749047006553</v>
       </c>
       <c r="P8">
-        <v>13.04496172289507</v>
+        <v>6.30431812066755</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.0654654036859</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.966753478083779</v>
+        <v>6.041143496615462</v>
       </c>
       <c r="D9">
-        <v>5.345306424932711</v>
+        <v>5.594885584858537</v>
       </c>
       <c r="E9">
-        <v>9.317594286717847</v>
+        <v>9.038612904563202</v>
       </c>
       <c r="F9">
-        <v>32.14997624176775</v>
+        <v>29.78157863629728</v>
       </c>
       <c r="G9">
-        <v>41.55983908242688</v>
+        <v>37.67193805219193</v>
       </c>
       <c r="H9">
-        <v>2.200254611726312</v>
+        <v>2.137876012922909</v>
       </c>
       <c r="I9">
-        <v>2.782465442253448</v>
+        <v>2.686214457283994</v>
       </c>
       <c r="J9">
-        <v>13.00159620074345</v>
+        <v>12.27768269353627</v>
       </c>
       <c r="K9">
-        <v>23.99268690531565</v>
+        <v>21.69919175867824</v>
       </c>
       <c r="L9">
-        <v>6.63498281459599</v>
+        <v>17.12508294465</v>
       </c>
       <c r="M9">
-        <v>23.98165492839185</v>
+        <v>15.24025638720094</v>
       </c>
       <c r="N9">
-        <v>6.162338785807268</v>
+        <v>6.382830947463026</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>23.08987558242276</v>
       </c>
       <c r="P9">
-        <v>12.76418432532707</v>
+        <v>6.551224381795538</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.88688800012774</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.489357656190517</v>
+        <v>6.440600084287852</v>
       </c>
       <c r="D10">
-        <v>5.639652944199932</v>
+        <v>5.929725042240219</v>
       </c>
       <c r="E10">
-        <v>9.716861313199614</v>
+        <v>9.400505200688052</v>
       </c>
       <c r="F10">
-        <v>33.38387656145601</v>
+        <v>30.63953409225382</v>
       </c>
       <c r="G10">
-        <v>43.40029558833678</v>
+        <v>39.44629214793581</v>
       </c>
       <c r="H10">
-        <v>1.789055956185061</v>
+        <v>1.780329963184748</v>
       </c>
       <c r="I10">
-        <v>2.557414194382544</v>
+        <v>2.598775052498559</v>
       </c>
       <c r="J10">
-        <v>13.23497279316478</v>
+        <v>12.19323600243386</v>
       </c>
       <c r="K10">
-        <v>24.78943422295325</v>
+        <v>22.1775254428348</v>
       </c>
       <c r="L10">
-        <v>6.785769553373202</v>
+        <v>17.18218452638681</v>
       </c>
       <c r="M10">
-        <v>25.92173701888775</v>
+        <v>15.96597972234649</v>
       </c>
       <c r="N10">
-        <v>6.274933487304788</v>
+        <v>6.50107308586542</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>24.88907540805151</v>
       </c>
       <c r="P10">
-        <v>12.58600542275463</v>
+        <v>6.673509334625543</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.80303453201508</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.263257789683848</v>
+        <v>6.346596671573174</v>
       </c>
       <c r="D11">
-        <v>5.506896264532726</v>
+        <v>5.835290648331302</v>
       </c>
       <c r="E11">
-        <v>9.026665384508771</v>
+        <v>8.741998622175622</v>
       </c>
       <c r="F11">
-        <v>32.33073535292444</v>
+        <v>29.42920736861268</v>
       </c>
       <c r="G11">
-        <v>41.92878055237235</v>
+        <v>38.88714661601039</v>
       </c>
       <c r="H11">
-        <v>2.767643226727257</v>
+        <v>2.772622116864763</v>
       </c>
       <c r="I11">
-        <v>2.654850832804806</v>
+        <v>2.680219929972969</v>
       </c>
       <c r="J11">
-        <v>12.88202300048176</v>
+        <v>11.35749959631575</v>
       </c>
       <c r="K11">
-        <v>24.03721436472392</v>
+        <v>21.34651377433757</v>
       </c>
       <c r="L11">
-        <v>6.46886762498924</v>
+        <v>16.43392450135078</v>
       </c>
       <c r="M11">
-        <v>26.22462631404894</v>
+        <v>15.48479665081789</v>
       </c>
       <c r="N11">
-        <v>5.896808999583823</v>
+        <v>6.214903467322601</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>25.1166488816495</v>
       </c>
       <c r="P11">
-        <v>12.65716447199917</v>
+        <v>6.248282313062522</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.9611656372362</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.003384176655366</v>
+        <v>6.204773937191789</v>
       </c>
       <c r="D12">
-        <v>5.326553959523974</v>
+        <v>5.663946314511559</v>
       </c>
       <c r="E12">
-        <v>8.402967503437335</v>
+        <v>8.147822276932262</v>
       </c>
       <c r="F12">
-        <v>31.21206930438297</v>
+        <v>28.32023133675758</v>
       </c>
       <c r="G12">
-        <v>40.35468523764157</v>
+        <v>37.85519728593252</v>
       </c>
       <c r="H12">
-        <v>4.154744040215816</v>
+        <v>4.158748685221241</v>
       </c>
       <c r="I12">
-        <v>2.65991143321333</v>
+        <v>2.683319443210425</v>
       </c>
       <c r="J12">
-        <v>12.54564755811971</v>
+        <v>10.85959682973539</v>
       </c>
       <c r="K12">
-        <v>23.27017242468919</v>
+        <v>20.62289619794933</v>
       </c>
       <c r="L12">
-        <v>6.214870977272104</v>
+        <v>15.8576791398983</v>
       </c>
       <c r="M12">
-        <v>26.097831490948</v>
+        <v>14.97787562316571</v>
       </c>
       <c r="N12">
-        <v>5.591768368364707</v>
+        <v>5.99764645851878</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>24.98104990295716</v>
       </c>
       <c r="P12">
-        <v>12.76778039305091</v>
+        <v>5.897013448324516</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>13.11519304582654</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.658485987445532</v>
+        <v>5.972733842303191</v>
       </c>
       <c r="D13">
-        <v>5.099473909693953</v>
+        <v>5.414572572598441</v>
       </c>
       <c r="E13">
-        <v>7.786134169206763</v>
+        <v>7.560671906064384</v>
       </c>
       <c r="F13">
-        <v>29.90648087596077</v>
+        <v>27.19987580581634</v>
       </c>
       <c r="G13">
-        <v>38.48931375751508</v>
+        <v>36.12177600970704</v>
       </c>
       <c r="H13">
-        <v>5.590175675947958</v>
+        <v>5.589452881339087</v>
       </c>
       <c r="I13">
-        <v>2.598637274317832</v>
+        <v>2.633842927934317</v>
       </c>
       <c r="J13">
-        <v>12.18221277407191</v>
+        <v>10.64524652732195</v>
       </c>
       <c r="K13">
-        <v>22.38792075579912</v>
+        <v>19.9133902399175</v>
       </c>
       <c r="L13">
-        <v>5.991814308767723</v>
+        <v>15.35322596557474</v>
       </c>
       <c r="M13">
-        <v>25.60996585146792</v>
+        <v>14.40415744321315</v>
       </c>
       <c r="N13">
-        <v>5.335969045571227</v>
+        <v>5.818329366914971</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>24.55443244584912</v>
       </c>
       <c r="P13">
-        <v>12.91335977584357</v>
+        <v>5.594157978270667</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>13.26292165427133</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.369129933272617</v>
+        <v>5.763437637817885</v>
       </c>
       <c r="D14">
-        <v>4.918304391101816</v>
+        <v>5.204355737604717</v>
       </c>
       <c r="E14">
-        <v>7.367844580898486</v>
+        <v>7.165630984182416</v>
       </c>
       <c r="F14">
-        <v>28.89259355564131</v>
+        <v>26.39343251848912</v>
       </c>
       <c r="G14">
-        <v>37.02350661622444</v>
+        <v>34.57613950381177</v>
       </c>
       <c r="H14">
-        <v>6.608141470498461</v>
+        <v>6.603468443955329</v>
       </c>
       <c r="I14">
-        <v>2.527190941348238</v>
+        <v>2.577144241175492</v>
       </c>
       <c r="J14">
-        <v>11.91286330673419</v>
+        <v>10.60476892246652</v>
       </c>
       <c r="K14">
-        <v>21.70696536249188</v>
+        <v>19.41067586362955</v>
       </c>
       <c r="L14">
-        <v>5.857963495478978</v>
+        <v>15.0206953591035</v>
       </c>
       <c r="M14">
-        <v>25.09435645951572</v>
+        <v>13.96417590739952</v>
       </c>
       <c r="N14">
-        <v>5.191319577880874</v>
+        <v>5.717476579683653</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>24.11349037775216</v>
       </c>
       <c r="P14">
-        <v>13.03174796146671</v>
+        <v>5.416568703228513</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>13.36299126818388</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.270773680514275</v>
+        <v>5.686197740718088</v>
       </c>
       <c r="D15">
-        <v>4.865208366411161</v>
+        <v>5.138576212125483</v>
       </c>
       <c r="E15">
-        <v>7.26157382502244</v>
+        <v>7.065997119865336</v>
       </c>
       <c r="F15">
-        <v>28.5955742899862</v>
+        <v>26.18067154740081</v>
       </c>
       <c r="G15">
-        <v>36.58541995744435</v>
+        <v>34.04790035301411</v>
       </c>
       <c r="H15">
-        <v>6.846729144949565</v>
+        <v>6.840369116067059</v>
       </c>
       <c r="I15">
-        <v>2.513275731994614</v>
+        <v>2.553820925501772</v>
       </c>
       <c r="J15">
-        <v>11.83861138132997</v>
+        <v>10.63915154521098</v>
       </c>
       <c r="K15">
-        <v>21.50665468426853</v>
+        <v>19.27886652703295</v>
       </c>
       <c r="L15">
-        <v>5.826066724970032</v>
+        <v>14.94361810469618</v>
       </c>
       <c r="M15">
-        <v>24.88507092473451</v>
+        <v>13.83480300824925</v>
       </c>
       <c r="N15">
-        <v>5.161223059344878</v>
+        <v>5.694503066493253</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>23.93634340763672</v>
       </c>
       <c r="P15">
-        <v>13.06674141206061</v>
+        <v>5.37936952349572</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>13.38534206746771</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.087307179527494</v>
+        <v>5.505979667455279</v>
       </c>
       <c r="D16">
-        <v>4.778949506662465</v>
+        <v>5.006024037459837</v>
       </c>
       <c r="E16">
-        <v>7.193448388669337</v>
+        <v>7.003081054147453</v>
       </c>
       <c r="F16">
-        <v>28.27065955829614</v>
+        <v>26.13422165436447</v>
       </c>
       <c r="G16">
-        <v>36.06609649822961</v>
+        <v>32.95743606382864</v>
       </c>
       <c r="H16">
-        <v>6.665663622003402</v>
+        <v>6.650412606061892</v>
       </c>
       <c r="I16">
-        <v>2.66442073652473</v>
+        <v>2.595779594123386</v>
       </c>
       <c r="J16">
-        <v>11.80066229601138</v>
+        <v>11.04571947933004</v>
       </c>
       <c r="K16">
-        <v>21.30357195422701</v>
+        <v>19.28089059466166</v>
       </c>
       <c r="L16">
-        <v>5.802313855242329</v>
+        <v>15.04755437521472</v>
       </c>
       <c r="M16">
-        <v>24.14393589994463</v>
+        <v>13.69800098032696</v>
       </c>
       <c r="N16">
-        <v>5.163991195125963</v>
+        <v>5.677087194737535</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>23.31160202985215</v>
       </c>
       <c r="P16">
-        <v>13.09942577940932</v>
+        <v>5.391849715219577</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.34809075310408</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.102782729003179</v>
+        <v>5.484666194857382</v>
       </c>
       <c r="D17">
-        <v>4.811734994783461</v>
+        <v>5.0241154915506</v>
       </c>
       <c r="E17">
-        <v>7.359539031755906</v>
+        <v>7.159500858318426</v>
       </c>
       <c r="F17">
-        <v>28.57139271198728</v>
+        <v>26.51246510685167</v>
       </c>
       <c r="G17">
-        <v>36.46712140171351</v>
+        <v>33.06008111577941</v>
       </c>
       <c r="H17">
-        <v>5.960417782849304</v>
+        <v>5.938358862877857</v>
       </c>
       <c r="I17">
-        <v>2.741265614994627</v>
+        <v>2.65933875539771</v>
       </c>
       <c r="J17">
-        <v>11.91582518394721</v>
+        <v>11.33466855199676</v>
       </c>
       <c r="K17">
-        <v>21.51496116416651</v>
+        <v>19.53806533173652</v>
       </c>
       <c r="L17">
-        <v>5.850176534182103</v>
+        <v>15.30027818520317</v>
       </c>
       <c r="M17">
-        <v>23.85153677823518</v>
+        <v>13.81635482065415</v>
       </c>
       <c r="N17">
-        <v>5.237423549047849</v>
+        <v>5.712680323781617</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>23.05668171134028</v>
       </c>
       <c r="P17">
-        <v>13.06375559143475</v>
+        <v>5.489530564389159</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.27560206831163</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.316079859094369</v>
+        <v>5.611237883531121</v>
       </c>
       <c r="D18">
-        <v>4.948941634144402</v>
+        <v>5.163655571337554</v>
       </c>
       <c r="E18">
-        <v>7.785876425949151</v>
+        <v>7.561020296924614</v>
       </c>
       <c r="F18">
-        <v>29.46736702947546</v>
+        <v>27.35868226443392</v>
       </c>
       <c r="G18">
-        <v>37.74463009592709</v>
+        <v>34.08498067777547</v>
       </c>
       <c r="H18">
-        <v>4.754448752200347</v>
+        <v>4.725933378549244</v>
       </c>
       <c r="I18">
-        <v>2.748480225075193</v>
+        <v>2.662672568665428</v>
       </c>
       <c r="J18">
-        <v>12.1829914263485</v>
+        <v>11.64500651976505</v>
       </c>
       <c r="K18">
-        <v>22.13049731455754</v>
+        <v>20.09169766905235</v>
       </c>
       <c r="L18">
-        <v>5.99403699936838</v>
+        <v>15.7497809785371</v>
       </c>
       <c r="M18">
-        <v>23.932694725569</v>
+        <v>14.19861635856123</v>
       </c>
       <c r="N18">
-        <v>5.410467925116544</v>
+        <v>5.827383256863246</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>23.12651133431179</v>
       </c>
       <c r="P18">
-        <v>12.96861628948232</v>
+        <v>5.700483000587155</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.15871342667967</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.630710201578768</v>
+        <v>5.810780080627312</v>
       </c>
       <c r="D19">
-        <v>5.164077730509301</v>
+        <v>5.390963837937149</v>
       </c>
       <c r="E19">
-        <v>8.425660669689295</v>
+        <v>8.167960349361364</v>
       </c>
       <c r="F19">
-        <v>30.70936454784987</v>
+        <v>28.47294866837738</v>
       </c>
       <c r="G19">
-        <v>39.51668876551496</v>
+        <v>35.6069497951965</v>
       </c>
       <c r="H19">
-        <v>3.346513095650685</v>
+        <v>3.311283450366551</v>
       </c>
       <c r="I19">
-        <v>2.717982181243641</v>
+        <v>2.639979709314631</v>
       </c>
       <c r="J19">
-        <v>12.53341209436467</v>
+        <v>11.96755523182549</v>
       </c>
       <c r="K19">
-        <v>22.96851376347518</v>
+        <v>20.80177370759516</v>
       </c>
       <c r="L19">
-        <v>6.237284580906847</v>
+        <v>16.29514647238264</v>
       </c>
       <c r="M19">
-        <v>24.28038430084221</v>
+        <v>14.73035449972736</v>
       </c>
       <c r="N19">
-        <v>5.696430031193604</v>
+        <v>6.031339965136269</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>23.43284524484184</v>
       </c>
       <c r="P19">
-        <v>12.84906912594438</v>
+        <v>6.031133467649243</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.02664718742211</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.278667987426481</v>
+        <v>6.258088649216916</v>
       </c>
       <c r="D20">
-        <v>5.571607241670646</v>
+        <v>5.836761683697381</v>
       </c>
       <c r="E20">
-        <v>9.59604404574484</v>
+        <v>9.285305353091747</v>
       </c>
       <c r="F20">
-        <v>32.95269866486339</v>
+        <v>30.37602985059227</v>
       </c>
       <c r="G20">
-        <v>42.73930420169787</v>
+        <v>38.57359977326087</v>
       </c>
       <c r="H20">
-        <v>1.89991833063719</v>
+        <v>1.874319435792251</v>
       </c>
       <c r="I20">
-        <v>2.543730833231637</v>
+        <v>2.535636016369225</v>
       </c>
       <c r="J20">
-        <v>13.13668461912482</v>
+        <v>12.34186252420337</v>
       </c>
       <c r="K20">
-        <v>24.48141544685843</v>
+        <v>22.00305276743889</v>
       </c>
       <c r="L20">
-        <v>6.734239674684896</v>
+        <v>17.13110541774516</v>
       </c>
       <c r="M20">
-        <v>25.38446158518032</v>
+        <v>15.73558423486195</v>
       </c>
       <c r="N20">
-        <v>6.253549059354937</v>
+        <v>6.46096618320157</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>24.41682709304442</v>
       </c>
       <c r="P20">
-        <v>12.64136120497821</v>
+        <v>6.650602880534507</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.82768962381422</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.753523439094588</v>
+        <v>6.690859587545102</v>
       </c>
       <c r="D21">
-        <v>5.836122280096181</v>
+        <v>6.208412151192122</v>
       </c>
       <c r="E21">
-        <v>10.05340763632072</v>
+        <v>9.73593278641237</v>
       </c>
       <c r="F21">
-        <v>34.1924086490836</v>
+        <v>30.97236148804289</v>
       </c>
       <c r="G21">
-        <v>44.57027357427052</v>
+        <v>41.55669810205354</v>
       </c>
       <c r="H21">
-        <v>1.580267891809235</v>
+        <v>1.568789719269813</v>
       </c>
       <c r="I21">
-        <v>2.760011731939565</v>
+        <v>2.765287497136264</v>
       </c>
       <c r="J21">
-        <v>13.40666349512739</v>
+        <v>11.53997018427871</v>
       </c>
       <c r="K21">
-        <v>25.29792457312975</v>
+        <v>22.32497039137354</v>
       </c>
       <c r="L21">
-        <v>6.921610245318778</v>
+        <v>17.14116343060535</v>
       </c>
       <c r="M21">
-        <v>26.90655678260046</v>
+        <v>16.2660123703273</v>
       </c>
       <c r="N21">
-        <v>6.419830062725058</v>
+        <v>6.607294353026035</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>25.68708957562847</v>
       </c>
       <c r="P21">
-        <v>12.48468996174849</v>
+        <v>6.828145027249402</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.78419356235358</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.055481429623688</v>
+        <v>6.977949245744165</v>
       </c>
       <c r="D22">
-        <v>5.985211135902434</v>
+        <v>6.430453688389022</v>
       </c>
       <c r="E22">
-        <v>10.29763569401411</v>
+        <v>9.980470379277303</v>
       </c>
       <c r="F22">
-        <v>34.94245534056104</v>
+        <v>31.29166977010862</v>
       </c>
       <c r="G22">
-        <v>45.68797689214773</v>
+        <v>43.53311901334202</v>
       </c>
       <c r="H22">
-        <v>1.792146571096795</v>
+        <v>1.730679511152153</v>
       </c>
       <c r="I22">
-        <v>2.937439632201767</v>
+        <v>2.904260686872793</v>
       </c>
       <c r="J22">
-        <v>13.57275141910869</v>
+        <v>10.97798296676779</v>
       </c>
       <c r="K22">
-        <v>25.80077947319517</v>
+        <v>22.49857760846902</v>
       </c>
       <c r="L22">
-        <v>7.022042418582611</v>
+        <v>17.1196653516072</v>
       </c>
       <c r="M22">
-        <v>27.84513051412466</v>
+        <v>16.58839934436855</v>
       </c>
       <c r="N22">
-        <v>6.496244677047154</v>
+        <v>6.683201359114133</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>26.45972549631552</v>
       </c>
       <c r="P22">
-        <v>12.38805452952206</v>
+        <v>6.90907546599938</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.76929301576852</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.92254469282212</v>
+        <v>6.838454117435129</v>
       </c>
       <c r="D23">
-        <v>5.90267024505735</v>
+        <v>6.298872640165222</v>
       </c>
       <c r="E23">
-        <v>10.17280788491137</v>
+        <v>9.851168072560554</v>
       </c>
       <c r="F23">
-        <v>34.57969474701434</v>
+        <v>31.20125097734482</v>
       </c>
       <c r="G23">
-        <v>45.1543450891019</v>
+        <v>42.36385724988336</v>
       </c>
       <c r="H23">
-        <v>1.681331346330827</v>
+        <v>1.63889913402284</v>
       </c>
       <c r="I23">
-        <v>2.839321882676656</v>
+        <v>2.826106079751757</v>
       </c>
       <c r="J23">
-        <v>13.49651439094715</v>
+        <v>11.39254272724232</v>
       </c>
       <c r="K23">
-        <v>25.56767287273657</v>
+        <v>22.46875763187746</v>
       </c>
       <c r="L23">
-        <v>6.972554982916577</v>
+        <v>17.17699991840911</v>
       </c>
       <c r="M23">
-        <v>27.36201908394781</v>
+        <v>16.46517604241006</v>
       </c>
       <c r="N23">
-        <v>6.451553391056938</v>
+        <v>6.647368316784255</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>26.08270714859284</v>
       </c>
       <c r="P23">
-        <v>12.43582756043752</v>
+        <v>6.862436909917549</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.76595467815513</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.353419870833305</v>
+        <v>6.315031188490339</v>
       </c>
       <c r="D24">
-        <v>5.586621422345739</v>
+        <v>5.85245328740401</v>
       </c>
       <c r="E24">
-        <v>9.678431209816546</v>
+        <v>9.364338973533933</v>
       </c>
       <c r="F24">
-        <v>33.13469171910948</v>
+        <v>30.54539900379439</v>
       </c>
       <c r="G24">
-        <v>43.01237849216174</v>
+        <v>38.80877024384257</v>
       </c>
       <c r="H24">
-        <v>1.878097738122008</v>
+        <v>1.853195288031186</v>
       </c>
       <c r="I24">
-        <v>2.519301820463133</v>
+        <v>2.527208261209261</v>
       </c>
       <c r="J24">
-        <v>13.19274566053543</v>
+        <v>12.3999038413789</v>
       </c>
       <c r="K24">
-        <v>24.62099248856793</v>
+        <v>22.12830946947264</v>
       </c>
       <c r="L24">
-        <v>6.774731223269703</v>
+        <v>17.22882753785575</v>
       </c>
       <c r="M24">
-        <v>25.42994726334801</v>
+        <v>15.82749605022842</v>
       </c>
       <c r="N24">
-        <v>6.287397830806913</v>
+        <v>6.497121479450042</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>24.45870455465096</v>
       </c>
       <c r="P24">
-        <v>12.627254106121</v>
+        <v>6.688206987889715</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.80945021797042</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.692107046147033</v>
+        <v>5.83053786803094</v>
       </c>
       <c r="D25">
-        <v>5.227646955903823</v>
+        <v>5.463644101951211</v>
       </c>
       <c r="E25">
-        <v>9.116662322487166</v>
+        <v>8.855129381628313</v>
       </c>
       <c r="F25">
-        <v>31.55651765621284</v>
+        <v>29.32877525470549</v>
       </c>
       <c r="G25">
-        <v>40.6633907450985</v>
+        <v>36.87018560126666</v>
       </c>
       <c r="H25">
-        <v>2.372492621942182</v>
+        <v>2.289494890192911</v>
       </c>
       <c r="I25">
-        <v>2.948782720262385</v>
+        <v>2.83135416477832</v>
       </c>
       <c r="J25">
-        <v>12.87696577084524</v>
+        <v>12.24213240283397</v>
       </c>
       <c r="K25">
-        <v>23.58710668249554</v>
+        <v>21.41653272198197</v>
       </c>
       <c r="L25">
-        <v>6.552886878859611</v>
+        <v>17.0200762208894</v>
       </c>
       <c r="M25">
-        <v>23.1755925913248</v>
+        <v>14.9001441601928</v>
       </c>
       <c r="N25">
-        <v>6.10766038814209</v>
+        <v>6.315425819647433</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>22.33598947408372</v>
       </c>
       <c r="P25">
-        <v>12.84279072044793</v>
+        <v>6.491360572315783</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.93555476192301</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
